--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1882534.054236049</v>
+        <v>1880749.235860832</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1154,49 +1154,49 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,55 +1224,55 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H9" t="n">
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.309829763041575</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>6.876045741711437</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.2287258209656</v>
       </c>
       <c r="C11" t="n">
         <v>284.7677759284925</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>274.1779257781679</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>172.3585663684086</v>
       </c>
       <c r="F11" t="n">
         <v>326.3709298991964</v>
       </c>
       <c r="G11" t="n">
-        <v>332.0692624787824</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.0278776793621</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.78570590746394</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.34246861415434</v>
+        <v>66.34246861415428</v>
       </c>
       <c r="T11" t="n">
         <v>130.6473413505919</v>
@@ -1433,10 +1433,10 @@
         <v>268.735852874898</v>
       </c>
       <c r="X11" t="n">
-        <v>144.3755339243487</v>
+        <v>289.225984835954</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.7328228135386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.13684114662286</v>
       </c>
       <c r="I12" t="n">
-        <v>39.13594517861366</v>
+        <v>39.13594517861409</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.3268643394223</v>
+        <v>99.32686433942227</v>
       </c>
       <c r="C13" t="n">
-        <v>86.74170525611284</v>
+        <v>86.74170525611281</v>
       </c>
       <c r="D13" t="n">
-        <v>68.11035717569736</v>
+        <v>68.11035717569733</v>
       </c>
       <c r="E13" t="n">
-        <v>65.92884680405417</v>
+        <v>65.92884680405415</v>
       </c>
       <c r="F13" t="n">
-        <v>64.91593218041625</v>
+        <v>64.91593218041622</v>
       </c>
       <c r="G13" t="n">
-        <v>86.26201550870798</v>
+        <v>86.26201550870795</v>
       </c>
       <c r="H13" t="n">
-        <v>70.84093529150088</v>
+        <v>70.84093529150086</v>
       </c>
       <c r="I13" t="n">
-        <v>38.14091173987053</v>
+        <v>38.14091173987133</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.75961877294331</v>
+        <v>41.75961877294328</v>
       </c>
       <c r="S13" t="n">
         <v>122.1831491956299</v>
@@ -1588,7 +1588,7 @@
         <v>171.632527481313</v>
       </c>
       <c r="W13" t="n">
-        <v>206.0178824940757</v>
+        <v>206.017882494076</v>
       </c>
       <c r="X13" t="n">
         <v>145.2045395465221</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.2287258209656</v>
       </c>
       <c r="C14" t="n">
         <v>284.7677759284925</v>
       </c>
       <c r="D14" t="n">
-        <v>274.1779257781679</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.4252542297468</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>326.3709298991964</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>332.0692624787824</v>
       </c>
       <c r="H14" t="n">
-        <v>231.0278776793621</v>
+        <v>135.105336753452</v>
       </c>
       <c r="I14" t="n">
-        <v>24.78570590746395</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.34246861415434</v>
+        <v>66.34246861415428</v>
       </c>
       <c r="T14" t="n">
-        <v>5.15251808056442</v>
+        <v>130.6473413505919</v>
       </c>
       <c r="U14" t="n">
         <v>170.6222683298145</v>
@@ -1670,10 +1670,10 @@
         <v>268.735852874898</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>289.225984835954</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>305.7328228135386</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.13684114662286</v>
       </c>
       <c r="I15" t="n">
-        <v>39.13594517861409</v>
+        <v>39.13594517861366</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.3268643394223</v>
+        <v>99.32686433942227</v>
       </c>
       <c r="C16" t="n">
-        <v>86.74170525611284</v>
+        <v>86.74170525611281</v>
       </c>
       <c r="D16" t="n">
-        <v>68.11035717569736</v>
+        <v>68.11035717569733</v>
       </c>
       <c r="E16" t="n">
-        <v>65.92884680405417</v>
+        <v>65.92884680405415</v>
       </c>
       <c r="F16" t="n">
-        <v>64.91593218041625</v>
+        <v>64.91593218041622</v>
       </c>
       <c r="G16" t="n">
-        <v>86.26201550870798</v>
+        <v>86.26201550870793</v>
       </c>
       <c r="H16" t="n">
-        <v>70.84093529150088</v>
+        <v>70.84093529150086</v>
       </c>
       <c r="I16" t="n">
-        <v>38.14091173987053</v>
+        <v>38.1409117398705</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.75961877294331</v>
+        <v>41.75961877294328</v>
       </c>
       <c r="S16" t="n">
         <v>122.1831491956299</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>246.0229968496674</v>
+        <v>35.00655161482072</v>
       </c>
       <c r="C17" t="n">
-        <v>228.5620469571944</v>
+        <v>228.5620469571943</v>
       </c>
       <c r="D17" t="n">
-        <v>217.9721968068698</v>
+        <v>217.9721968068697</v>
       </c>
       <c r="E17" t="n">
         <v>245.2195252584486</v>
       </c>
       <c r="F17" t="n">
-        <v>270.1652009278983</v>
+        <v>270.1652009278982</v>
       </c>
       <c r="G17" t="n">
         <v>275.8635335074842</v>
       </c>
       <c r="H17" t="n">
-        <v>174.8221487080639</v>
+        <v>174.8221487080638</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.13673964285618</v>
+        <v>10.1367396428561</v>
       </c>
       <c r="T17" t="n">
-        <v>74.4416123792938</v>
+        <v>74.44161237929372</v>
       </c>
       <c r="U17" t="n">
-        <v>114.4165393585163</v>
+        <v>114.4165393585162</v>
       </c>
       <c r="V17" t="n">
-        <v>191.0414136563218</v>
+        <v>191.0414136563217</v>
       </c>
       <c r="W17" t="n">
-        <v>212.5301239035999</v>
+        <v>212.5301239035998</v>
       </c>
       <c r="X17" t="n">
-        <v>233.0202558646559</v>
+        <v>233.0202558646558</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.51064860739271</v>
+        <v>249.5270938422404</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.12113536812416</v>
+        <v>43.12113536812407</v>
       </c>
       <c r="C19" t="n">
-        <v>30.53597628481469</v>
+        <v>30.53597628481461</v>
       </c>
       <c r="D19" t="n">
-        <v>11.90462820439922</v>
+        <v>11.90462820439913</v>
       </c>
       <c r="E19" t="n">
-        <v>9.723117832756031</v>
+        <v>9.723117832755946</v>
       </c>
       <c r="F19" t="n">
-        <v>8.710203209118106</v>
+        <v>8.710203209118021</v>
       </c>
       <c r="G19" t="n">
-        <v>30.05628653740983</v>
+        <v>30.05628653740974</v>
       </c>
       <c r="H19" t="n">
-        <v>14.63520632020274</v>
+        <v>14.63520632020266</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>171.5199460211158</v>
+        <v>202.6882650381449</v>
       </c>
       <c r="T19" t="n">
-        <v>222.7164206700922</v>
+        <v>86.00557585627898</v>
       </c>
       <c r="U19" t="n">
-        <v>149.5414291968285</v>
+        <v>149.5414291968284</v>
       </c>
       <c r="V19" t="n">
-        <v>115.4267985100149</v>
+        <v>220.9693243067998</v>
       </c>
       <c r="W19" t="n">
-        <v>149.8121535227779</v>
+        <v>149.8121535227778</v>
       </c>
       <c r="X19" t="n">
-        <v>88.99881057522401</v>
+        <v>88.99881057522393</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.87380853828165</v>
+        <v>81.87380853828157</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.00655161481922</v>
+        <v>246.0229968496674</v>
       </c>
       <c r="C20" t="n">
-        <v>228.5620469571944</v>
+        <v>228.5620469571943</v>
       </c>
       <c r="D20" t="n">
-        <v>217.9721968068698</v>
+        <v>217.9721968068697</v>
       </c>
       <c r="E20" t="n">
-        <v>245.2195252584486</v>
+        <v>209.0252287316652</v>
       </c>
       <c r="F20" t="n">
-        <v>270.1652009278983</v>
+        <v>270.1652009278982</v>
       </c>
       <c r="G20" t="n">
-        <v>275.8635335074842</v>
+        <v>275.8635335074841</v>
       </c>
       <c r="H20" t="n">
-        <v>174.8221487080639</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.13673964285618</v>
+        <v>10.1367396428561</v>
       </c>
       <c r="T20" t="n">
-        <v>74.4416123792938</v>
+        <v>74.44161237929372</v>
       </c>
       <c r="U20" t="n">
         <v>114.4165393585163</v>
       </c>
       <c r="V20" t="n">
-        <v>191.0414136563218</v>
+        <v>191.0414136563217</v>
       </c>
       <c r="W20" t="n">
-        <v>212.5301239035999</v>
+        <v>212.5301239035998</v>
       </c>
       <c r="X20" t="n">
-        <v>233.0202558646559</v>
+        <v>233.0202558646558</v>
       </c>
       <c r="Y20" t="n">
         <v>249.5270938422404</v>
@@ -2175,7 +2175,7 @@
         <v>135.8837162983191</v>
       </c>
       <c r="H21" t="n">
-        <v>98.13684114662286</v>
+        <v>98.13684114662242</v>
       </c>
       <c r="I21" t="n">
         <v>39.13594517861409</v>
@@ -2214,7 +2214,7 @@
         <v>194.2807067876491</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8453425503895</v>
+        <v>225.8453425503899</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.12113536812416</v>
+        <v>43.12113536812407</v>
       </c>
       <c r="C22" t="n">
-        <v>30.53597628481469</v>
+        <v>30.53597628481461</v>
       </c>
       <c r="D22" t="n">
-        <v>11.90462820439922</v>
+        <v>117.4471540011841</v>
       </c>
       <c r="E22" t="n">
-        <v>9.723117832756031</v>
+        <v>9.723117832755946</v>
       </c>
       <c r="F22" t="n">
-        <v>8.710203209118106</v>
+        <v>8.710203209118021</v>
       </c>
       <c r="G22" t="n">
-        <v>30.05628653740983</v>
+        <v>30.05628653740974</v>
       </c>
       <c r="H22" t="n">
-        <v>14.63520632020274</v>
+        <v>14.63520632020266</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>105.5425257967839</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>65.97742022433172</v>
+        <v>65.97742022433164</v>
       </c>
       <c r="T22" t="n">
-        <v>86.00557585627907</v>
+        <v>86.00557585627898</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2522740106417</v>
+        <v>149.5414291968284</v>
       </c>
       <c r="V22" t="n">
-        <v>115.4267985100149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>149.8121535227779</v>
+        <v>149.8121535227778</v>
       </c>
       <c r="X22" t="n">
-        <v>88.99881057522401</v>
+        <v>88.99881057522393</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.87380853828165</v>
+        <v>81.87380853828157</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>246.0229968496674</v>
       </c>
       <c r="C23" t="n">
-        <v>228.5620469571944</v>
+        <v>228.5620469571943</v>
       </c>
       <c r="D23" t="n">
-        <v>217.9721968068698</v>
+        <v>217.9721968068697</v>
       </c>
       <c r="E23" t="n">
         <v>245.2195252584486</v>
       </c>
       <c r="F23" t="n">
-        <v>270.1652009278983</v>
+        <v>270.1652009278982</v>
       </c>
       <c r="G23" t="n">
         <v>275.8635335074842</v>
       </c>
       <c r="H23" t="n">
-        <v>174.8221487080639</v>
+        <v>174.8221487080638</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.13673964285618</v>
+        <v>10.1367396428561</v>
       </c>
       <c r="T23" t="n">
-        <v>74.4416123792938</v>
+        <v>74.44161237929372</v>
       </c>
       <c r="U23" t="n">
-        <v>114.4165393585163</v>
+        <v>114.4165393585162</v>
       </c>
       <c r="V23" t="n">
-        <v>191.0414136563218</v>
+        <v>191.0414136563217</v>
       </c>
       <c r="W23" t="n">
-        <v>212.5301239035999</v>
+        <v>212.5301239035998</v>
       </c>
       <c r="X23" t="n">
-        <v>233.0202558646559</v>
+        <v>233.0202558646558</v>
       </c>
       <c r="Y23" t="n">
         <v>249.5270938422404</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.12113536812416</v>
+        <v>43.12113536812407</v>
       </c>
       <c r="C25" t="n">
-        <v>30.53597628481469</v>
+        <v>30.53597628481461</v>
       </c>
       <c r="D25" t="n">
-        <v>11.90462820439922</v>
+        <v>117.4471540011839</v>
       </c>
       <c r="E25" t="n">
-        <v>9.723117832756031</v>
+        <v>9.723117832755946</v>
       </c>
       <c r="F25" t="n">
-        <v>8.710203209118106</v>
+        <v>8.710203209118021</v>
       </c>
       <c r="G25" t="n">
-        <v>30.05628653740983</v>
+        <v>30.05628653740974</v>
       </c>
       <c r="H25" t="n">
-        <v>14.63520632020274</v>
+        <v>14.63520632020266</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.2647346154583</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.9660562194704</v>
+        <v>65.97742022433164</v>
       </c>
       <c r="T25" t="n">
-        <v>86.00557585627907</v>
+        <v>86.00557585627898</v>
       </c>
       <c r="U25" t="n">
-        <v>149.5414291968285</v>
+        <v>149.5414291968284</v>
       </c>
       <c r="V25" t="n">
-        <v>115.4267985100149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>149.8121535227779</v>
+        <v>149.8121535227778</v>
       </c>
       <c r="X25" t="n">
-        <v>88.99881057522401</v>
+        <v>88.99881057522393</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.87380853828165</v>
+        <v>81.87380853828157</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.5281126921825</v>
+        <v>326.5281126921824</v>
       </c>
       <c r="C26" t="n">
-        <v>309.0671627997095</v>
+        <v>309.0671627997094</v>
       </c>
       <c r="D26" t="n">
-        <v>298.4773126493849</v>
+        <v>298.4773126493848</v>
       </c>
       <c r="E26" t="n">
-        <v>325.7246411009637</v>
+        <v>325.7246411009636</v>
       </c>
       <c r="F26" t="n">
-        <v>350.6703167704134</v>
+        <v>350.6703167704133</v>
       </c>
       <c r="G26" t="n">
-        <v>356.3686493499993</v>
+        <v>356.3686493499992</v>
       </c>
       <c r="H26" t="n">
-        <v>255.327264550579</v>
+        <v>255.3272645505789</v>
       </c>
       <c r="I26" t="n">
-        <v>49.08509277868087</v>
+        <v>49.08509277868077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>90.64185548537125</v>
+        <v>90.64185548537114</v>
       </c>
       <c r="T26" t="n">
-        <v>154.9467282218089</v>
+        <v>154.9467282218088</v>
       </c>
       <c r="U26" t="n">
-        <v>194.9216552010314</v>
+        <v>194.9216552010313</v>
       </c>
       <c r="V26" t="n">
-        <v>271.5465294988368</v>
+        <v>271.5465294988367</v>
       </c>
       <c r="W26" t="n">
-        <v>293.0352397461149</v>
+        <v>293.0352397461148</v>
       </c>
       <c r="X26" t="n">
-        <v>313.525371707171</v>
+        <v>313.5253717071708</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.0322096847555</v>
+        <v>330.0322096847554</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.6262512106392</v>
+        <v>123.6262512106391</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>92.40974404691417</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>46.54844770673604</v>
       </c>
       <c r="G28" t="n">
-        <v>110.5614023799249</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>95.14032216271769</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27.21719279980503</v>
+        <v>66.05900564416012</v>
       </c>
       <c r="S28" t="n">
-        <v>146.4825360668468</v>
+        <v>146.4825360668467</v>
       </c>
       <c r="T28" t="n">
-        <v>166.5106916987941</v>
+        <v>166.510691698794</v>
       </c>
       <c r="U28" t="n">
-        <v>230.0465450393436</v>
+        <v>230.0465450393435</v>
       </c>
       <c r="V28" t="n">
-        <v>195.9319143525299</v>
+        <v>195.9319143525298</v>
       </c>
       <c r="W28" t="n">
-        <v>230.3172693652929</v>
+        <v>230.3172693652928</v>
       </c>
       <c r="X28" t="n">
-        <v>169.5039264177391</v>
+        <v>169.503926417739</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.3789243807967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>298.4773126493848</v>
       </c>
       <c r="E29" t="n">
-        <v>325.7246411009637</v>
+        <v>325.7246411009636</v>
       </c>
       <c r="F29" t="n">
         <v>350.6703167704133</v>
       </c>
       <c r="G29" t="n">
-        <v>356.3686493499993</v>
+        <v>356.3686493499992</v>
       </c>
       <c r="H29" t="n">
         <v>255.3272645505789</v>
       </c>
       <c r="I29" t="n">
-        <v>49.0850927786808</v>
+        <v>49.08509277868077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.64185548537117</v>
+        <v>90.64185548537114</v>
       </c>
       <c r="T29" t="n">
         <v>154.9467282218088</v>
@@ -2849,16 +2849,16 @@
         <v>194.9216552010313</v>
       </c>
       <c r="V29" t="n">
-        <v>271.5465294988368</v>
+        <v>271.5465294988367</v>
       </c>
       <c r="W29" t="n">
-        <v>293.0352397461149</v>
+        <v>293.0352397461148</v>
       </c>
       <c r="X29" t="n">
-        <v>313.5253717071709</v>
+        <v>313.5253717071708</v>
       </c>
       <c r="Y29" t="n">
-        <v>330.0322096847555</v>
+        <v>330.0322096847554</v>
       </c>
     </row>
     <row r="30">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.6262512106391</v>
       </c>
       <c r="C31" t="n">
-        <v>111.0410921273297</v>
+        <v>111.0410921273296</v>
       </c>
       <c r="D31" t="n">
-        <v>92.40974404691421</v>
+        <v>92.40974404691417</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>90.22823367527099</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>110.5614023799248</v>
       </c>
       <c r="H31" t="n">
-        <v>95.14032216271774</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.05900564416017</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>146.4825360668467</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.5106916987941</v>
+        <v>166.510691698794</v>
       </c>
       <c r="U31" t="n">
-        <v>178.6187494494646</v>
+        <v>230.0465450393435</v>
       </c>
       <c r="V31" t="n">
-        <v>195.9319143525299</v>
+        <v>195.9319143525298</v>
       </c>
       <c r="W31" t="n">
-        <v>230.3172693652929</v>
+        <v>230.3172693652928</v>
       </c>
       <c r="X31" t="n">
-        <v>169.503926417739</v>
+        <v>49.52458543487783</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>162.3789243807966</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>253.5482939962833</v>
       </c>
       <c r="I32" t="n">
-        <v>47.30612222438522</v>
+        <v>47.30612222438523</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.38237406864439</v>
+        <v>121.8472806563436</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>109.2621215730341</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>88.44926312097544</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>87.43634849733752</v>
       </c>
       <c r="G34" t="n">
-        <v>108.7824318256292</v>
+        <v>41.41113257137121</v>
       </c>
       <c r="H34" t="n">
-        <v>93.36135160842215</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>64.28003508986458</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>144.7035655125511</v>
@@ -3253,7 +3253,7 @@
         <v>167.7249558634434</v>
       </c>
       <c r="Y34" t="n">
-        <v>160.5999538265011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.2287258209656</v>
+        <v>302.2287258209655</v>
       </c>
       <c r="C35" t="n">
-        <v>284.7677759284926</v>
+        <v>284.7677759284925</v>
       </c>
       <c r="D35" t="n">
         <v>274.1779257781679</v>
       </c>
       <c r="E35" t="n">
-        <v>301.4252542297468</v>
+        <v>301.4252542297467</v>
       </c>
       <c r="F35" t="n">
         <v>326.3709298991964</v>
       </c>
       <c r="G35" t="n">
-        <v>332.0692624787824</v>
+        <v>332.0692624787823</v>
       </c>
       <c r="H35" t="n">
-        <v>231.0278776793621</v>
+        <v>231.027877679362</v>
       </c>
       <c r="I35" t="n">
-        <v>24.78570590746395</v>
+        <v>24.78570590746388</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.34246861415433</v>
+        <v>66.34246861415426</v>
       </c>
       <c r="T35" t="n">
         <v>130.6473413505919</v>
       </c>
       <c r="U35" t="n">
-        <v>170.6222683298145</v>
+        <v>170.6222683298144</v>
       </c>
       <c r="V35" t="n">
-        <v>247.2471426276199</v>
+        <v>247.2471426276198</v>
       </c>
       <c r="W35" t="n">
-        <v>268.735852874898</v>
+        <v>268.7358528748979</v>
       </c>
       <c r="X35" t="n">
         <v>289.225984835954</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.7328228135386</v>
+        <v>305.7328228135385</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.522127821920705</v>
+        <v>9.522127821920719</v>
       </c>
       <c r="S36" t="n">
         <v>144.5680103020146</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.32686433942231</v>
+        <v>99.32686433942223</v>
       </c>
       <c r="C37" t="n">
-        <v>86.74170525611285</v>
+        <v>86.74170525611277</v>
       </c>
       <c r="D37" t="n">
-        <v>68.11035717569737</v>
+        <v>68.11035717569729</v>
       </c>
       <c r="E37" t="n">
-        <v>65.92884680405419</v>
+        <v>65.9288468040541</v>
       </c>
       <c r="F37" t="n">
-        <v>64.91593218041626</v>
+        <v>64.91593218041618</v>
       </c>
       <c r="G37" t="n">
-        <v>86.26201550870798</v>
+        <v>86.2620155087079</v>
       </c>
       <c r="H37" t="n">
-        <v>70.8409352915009</v>
+        <v>70.84093529150081</v>
       </c>
       <c r="I37" t="n">
-        <v>38.14091173987054</v>
+        <v>38.14091173987046</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75961877294332</v>
+        <v>41.75961877294324</v>
       </c>
       <c r="S37" t="n">
-        <v>122.1831491956299</v>
+        <v>122.1831491956298</v>
       </c>
       <c r="T37" t="n">
-        <v>142.2113048275772</v>
+        <v>142.2113048275771</v>
       </c>
       <c r="U37" t="n">
-        <v>205.7471581681267</v>
+        <v>205.7471581681266</v>
       </c>
       <c r="V37" t="n">
-        <v>171.632527481313</v>
+        <v>171.6325274813129</v>
       </c>
       <c r="W37" t="n">
-        <v>206.017882494076</v>
+        <v>206.0178824940759</v>
       </c>
       <c r="X37" t="n">
-        <v>145.2045395465222</v>
+        <v>145.2045395465221</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.0795375095798</v>
+        <v>138.0795375095797</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.2287258209656</v>
+        <v>302.2287258209655</v>
       </c>
       <c r="C38" t="n">
-        <v>284.7677759284926</v>
+        <v>284.7677759284925</v>
       </c>
       <c r="D38" t="n">
         <v>274.1779257781679</v>
       </c>
       <c r="E38" t="n">
-        <v>301.4252542297468</v>
+        <v>301.4252542297467</v>
       </c>
       <c r="F38" t="n">
         <v>326.3709298991964</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0692624787824</v>
+        <v>332.0692624787823</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0278776793621</v>
+        <v>231.027877679362</v>
       </c>
       <c r="I38" t="n">
-        <v>24.78570590746396</v>
+        <v>24.78570590746388</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.34246861415434</v>
+        <v>66.34246861415426</v>
       </c>
       <c r="T38" t="n">
         <v>130.6473413505919</v>
       </c>
       <c r="U38" t="n">
-        <v>170.6222683298145</v>
+        <v>170.6222683298144</v>
       </c>
       <c r="V38" t="n">
-        <v>247.2471426276199</v>
+        <v>247.2471426276198</v>
       </c>
       <c r="W38" t="n">
-        <v>268.735852874898</v>
+        <v>268.7358528748979</v>
       </c>
       <c r="X38" t="n">
         <v>289.225984835954</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.7328228135386</v>
+        <v>305.7328228135385</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.32686433942231</v>
+        <v>99.32686433942223</v>
       </c>
       <c r="C40" t="n">
-        <v>86.74170525611285</v>
+        <v>86.74170525611277</v>
       </c>
       <c r="D40" t="n">
-        <v>68.11035717569737</v>
+        <v>68.11035717569729</v>
       </c>
       <c r="E40" t="n">
-        <v>65.92884680405419</v>
+        <v>65.9288468040541</v>
       </c>
       <c r="F40" t="n">
-        <v>64.91593218041626</v>
+        <v>64.91593218041618</v>
       </c>
       <c r="G40" t="n">
-        <v>86.26201550870799</v>
+        <v>86.2620155087079</v>
       </c>
       <c r="H40" t="n">
-        <v>70.8409352915009</v>
+        <v>70.84093529150081</v>
       </c>
       <c r="I40" t="n">
-        <v>38.14091173987055</v>
+        <v>38.14091173987046</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75961877294333</v>
+        <v>41.75961877294324</v>
       </c>
       <c r="S40" t="n">
-        <v>122.1831491956299</v>
+        <v>122.1831491956298</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2113048275772</v>
+        <v>142.2113048275771</v>
       </c>
       <c r="U40" t="n">
-        <v>205.7471581681267</v>
+        <v>205.7471581681266</v>
       </c>
       <c r="V40" t="n">
-        <v>171.632527481313</v>
+        <v>171.6325274813129</v>
       </c>
       <c r="W40" t="n">
-        <v>206.017882494076</v>
+        <v>206.0178824940759</v>
       </c>
       <c r="X40" t="n">
-        <v>145.2045395465222</v>
+        <v>145.2045395465221</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.0795375095798</v>
+        <v>138.0795375095797</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.2287258209655</v>
+        <v>302.2287258209656</v>
       </c>
       <c r="C41" t="n">
         <v>284.7677759284925</v>
@@ -3746,19 +3746,19 @@
         <v>274.1779257781679</v>
       </c>
       <c r="E41" t="n">
-        <v>301.4252542297467</v>
+        <v>301.4252542297468</v>
       </c>
       <c r="F41" t="n">
         <v>326.3709298991964</v>
       </c>
       <c r="G41" t="n">
-        <v>332.0692624787823</v>
+        <v>332.0692624787824</v>
       </c>
       <c r="H41" t="n">
-        <v>231.027877679362</v>
+        <v>231.0278776793621</v>
       </c>
       <c r="I41" t="n">
-        <v>24.78570590746388</v>
+        <v>24.78570590746392</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.34246861415426</v>
+        <v>66.34246861415428</v>
       </c>
       <c r="T41" t="n">
         <v>130.6473413505919</v>
       </c>
       <c r="U41" t="n">
-        <v>170.6222683298144</v>
+        <v>170.6222683298145</v>
       </c>
       <c r="V41" t="n">
-        <v>247.2471426276198</v>
+        <v>247.2471426276199</v>
       </c>
       <c r="W41" t="n">
-        <v>268.7358528748979</v>
+        <v>268.735852874898</v>
       </c>
       <c r="X41" t="n">
         <v>289.225984835954</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.7328228135385</v>
+        <v>305.7328228135386</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.32686433942223</v>
+        <v>99.32686433942227</v>
       </c>
       <c r="C43" t="n">
-        <v>86.74170525611277</v>
+        <v>86.74170525611281</v>
       </c>
       <c r="D43" t="n">
-        <v>68.11035717569729</v>
+        <v>68.11035717569733</v>
       </c>
       <c r="E43" t="n">
-        <v>65.9288468040541</v>
+        <v>65.92884680405415</v>
       </c>
       <c r="F43" t="n">
-        <v>64.91593218041618</v>
+        <v>64.91593218041622</v>
       </c>
       <c r="G43" t="n">
-        <v>86.2620155087079</v>
+        <v>86.26201550870795</v>
       </c>
       <c r="H43" t="n">
-        <v>70.84093529150081</v>
+        <v>70.84093529150086</v>
       </c>
       <c r="I43" t="n">
-        <v>38.14091173987046</v>
+        <v>38.1409117398705</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75961877294324</v>
+        <v>41.75961877294328</v>
       </c>
       <c r="S43" t="n">
-        <v>122.1831491956298</v>
+        <v>122.1831491956299</v>
       </c>
       <c r="T43" t="n">
-        <v>142.2113048275771</v>
+        <v>142.2113048275772</v>
       </c>
       <c r="U43" t="n">
         <v>205.7471581681266</v>
       </c>
       <c r="V43" t="n">
-        <v>171.6325274813129</v>
+        <v>171.632527481313</v>
       </c>
       <c r="W43" t="n">
-        <v>206.0178824940759</v>
+        <v>206.017882494076</v>
       </c>
       <c r="X43" t="n">
         <v>145.2045395465221</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.0795375095797</v>
+        <v>138.0795375095798</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>231.0278776793621</v>
       </c>
       <c r="I44" t="n">
-        <v>24.78570590746392</v>
+        <v>24.78570590746396</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.34246861415428</v>
+        <v>66.34246861415431</v>
       </c>
       <c r="T44" t="n">
         <v>130.6473413505919</v>
@@ -4071,10 +4071,10 @@
         <v>135.8837162983191</v>
       </c>
       <c r="H45" t="n">
-        <v>98.13684114662286</v>
+        <v>98.13684114662287</v>
       </c>
       <c r="I45" t="n">
-        <v>39.13594517861409</v>
+        <v>39.13594517861411</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.522127821920719</v>
+        <v>9.522127821920748</v>
       </c>
       <c r="S45" t="n">
         <v>144.5680103020146</v>
@@ -4150,10 +4150,10 @@
         <v>86.26201550870793</v>
       </c>
       <c r="H46" t="n">
-        <v>70.84093529150086</v>
+        <v>70.84093529150087</v>
       </c>
       <c r="I46" t="n">
-        <v>38.1409117398705</v>
+        <v>38.14091173987051</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75961877294328</v>
+        <v>41.75961877294331</v>
       </c>
       <c r="S46" t="n">
         <v>122.1831491956299</v>
@@ -4778,61 +4778,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
         <v>21.38658590694733</v>
@@ -4844,10 +4844,10 @@
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,10 +4887,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="M9" t="n">
         <v>14.16465422792556</v>
-      </c>
-      <c r="M9" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="N9" t="n">
         <v>20.69689768255142</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
         <v>0.5500836593369149</v>
@@ -4984,13 +4984,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
         <v>13.6131814684388</v>
@@ -5002,10 +5002,10 @@
         <v>6.667680719235332</v>
       </c>
       <c r="X10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1263.343249334155</v>
+        <v>1120.569154466445</v>
       </c>
       <c r="C11" t="n">
-        <v>975.6990312245661</v>
+        <v>832.9249363568566</v>
       </c>
       <c r="D11" t="n">
-        <v>975.6990312245661</v>
+        <v>555.9775365809294</v>
       </c>
       <c r="E11" t="n">
-        <v>975.6990312245661</v>
+        <v>381.8779745926384</v>
       </c>
       <c r="F11" t="n">
-        <v>646.0314252657819</v>
+        <v>52.21036863385412</v>
       </c>
       <c r="G11" t="n">
-        <v>310.6079278124663</v>
+        <v>52.21036863385412</v>
       </c>
       <c r="H11" t="n">
-        <v>77.24643520705001</v>
+        <v>52.21036863385412</v>
       </c>
       <c r="I11" t="n">
         <v>52.21036863385412</v>
@@ -5042,25 +5042,25 @@
         <v>102.2253385191352</v>
       </c>
       <c r="K11" t="n">
-        <v>548.8272900251554</v>
+        <v>421.9498060201629</v>
       </c>
       <c r="L11" t="n">
-        <v>1155.153129656537</v>
+        <v>1028.275645651545</v>
       </c>
       <c r="M11" t="n">
-        <v>1401.395600043537</v>
+        <v>1274.518116038545</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.236339418809</v>
+        <v>1920.62142788249</v>
       </c>
       <c r="O11" t="n">
-        <v>2260.532141380967</v>
+        <v>2147.92505039453</v>
       </c>
       <c r="P11" t="n">
-        <v>2420.029523480871</v>
+        <v>2307.422432494434</v>
       </c>
       <c r="Q11" t="n">
-        <v>2610.518431692706</v>
+        <v>2589.217418176638</v>
       </c>
       <c r="R11" t="n">
         <v>2610.518431692706</v>
@@ -5081,10 +5081,10 @@
         <v>1717.99815513</v>
       </c>
       <c r="X11" t="n">
-        <v>1572.164282479143</v>
+        <v>1425.850695699744</v>
       </c>
       <c r="Y11" t="n">
-        <v>1263.343249334155</v>
+        <v>1425.850695699744</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.2854797705156</v>
+        <v>957.2854797705158</v>
       </c>
       <c r="C12" t="n">
-        <v>782.8324504893886</v>
+        <v>782.8324504893889</v>
       </c>
       <c r="D12" t="n">
-        <v>633.8980408281374</v>
+        <v>633.8980408281377</v>
       </c>
       <c r="E12" t="n">
-        <v>474.6605858226819</v>
+        <v>474.6605858226822</v>
       </c>
       <c r="F12" t="n">
-        <v>328.1260278495669</v>
+        <v>328.1260278495673</v>
       </c>
       <c r="G12" t="n">
-        <v>190.8697487603557</v>
+        <v>190.8697487603563</v>
       </c>
       <c r="H12" t="n">
-        <v>91.74162639002954</v>
+        <v>91.74162639002998</v>
       </c>
       <c r="I12" t="n">
         <v>52.21036863385412</v>
@@ -5121,19 +5121,19 @@
         <v>188.0112200906943</v>
       </c>
       <c r="K12" t="n">
-        <v>546.7373483866231</v>
+        <v>284.9167637441704</v>
       </c>
       <c r="L12" t="n">
-        <v>1090.493293721162</v>
+        <v>828.6727090787097</v>
       </c>
       <c r="M12" t="n">
-        <v>1449.506036571936</v>
+        <v>1054.141458500897</v>
       </c>
       <c r="N12" t="n">
-        <v>1695.350917803873</v>
+        <v>1700.244770344842</v>
       </c>
       <c r="O12" t="n">
-        <v>1898.031159236302</v>
+        <v>2213.30930018984</v>
       </c>
       <c r="P12" t="n">
         <v>2356.644996301809</v>
@@ -5148,7 +5148,7 @@
         <v>2454.871827527115</v>
       </c>
       <c r="T12" t="n">
-        <v>2258.628689357772</v>
+        <v>2258.628689357773</v>
       </c>
       <c r="U12" t="n">
         <v>2030.502080721015</v>
@@ -5157,7 +5157,7 @@
         <v>1795.349972489272</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.11261576107</v>
+        <v>1541.112615761071</v>
       </c>
       <c r="X12" t="n">
         <v>1333.261115555538</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.0090594988642</v>
+        <v>538.0090594988648</v>
       </c>
       <c r="C13" t="n">
-        <v>450.3911754017806</v>
+        <v>450.3911754017811</v>
       </c>
       <c r="D13" t="n">
-        <v>381.5928348202681</v>
+        <v>381.5928348202686</v>
       </c>
       <c r="E13" t="n">
-        <v>314.9980400686982</v>
+        <v>314.9980400686988</v>
       </c>
       <c r="F13" t="n">
-        <v>249.4263914016111</v>
+        <v>249.4263914016117</v>
       </c>
       <c r="G13" t="n">
-        <v>162.2930424029162</v>
+        <v>162.293042402917</v>
       </c>
       <c r="H13" t="n">
-        <v>90.73654210847081</v>
+        <v>90.73654210847164</v>
       </c>
       <c r="I13" t="n">
         <v>52.21036863385412</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1456385728928</v>
+        <v>125.1456385728929</v>
       </c>
       <c r="K13" t="n">
-        <v>323.5659041416194</v>
+        <v>323.5659041416197</v>
       </c>
       <c r="L13" t="n">
-        <v>610.7133866264296</v>
+        <v>610.7133866264301</v>
       </c>
       <c r="M13" t="n">
-        <v>919.5267902016426</v>
+        <v>919.5267902016431</v>
       </c>
       <c r="N13" t="n">
         <v>1228.32700709337</v>
@@ -5215,16 +5215,16 @@
         <v>1503.621847760878</v>
       </c>
       <c r="P13" t="n">
-        <v>1727.166351111597</v>
+        <v>1727.166351111598</v>
       </c>
       <c r="Q13" t="n">
         <v>1823.02176892835</v>
       </c>
       <c r="R13" t="n">
-        <v>1780.840335824366</v>
+        <v>1780.840335824367</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.423013404538</v>
+        <v>1657.423013404539</v>
       </c>
       <c r="T13" t="n">
         <v>1513.77523075042</v>
@@ -5233,16 +5233,16 @@
         <v>1305.949818459383</v>
       </c>
       <c r="V13" t="n">
-        <v>1132.583629084319</v>
+        <v>1132.58362908432</v>
       </c>
       <c r="W13" t="n">
-        <v>924.4847578781818</v>
+        <v>924.4847578781822</v>
       </c>
       <c r="X13" t="n">
-        <v>777.8135058109876</v>
+        <v>777.8135058109881</v>
       </c>
       <c r="Y13" t="n">
-        <v>638.3392254982807</v>
+        <v>638.3392254982812</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.760602877503</v>
+        <v>811.7481213214566</v>
       </c>
       <c r="C14" t="n">
-        <v>1557.116384767914</v>
+        <v>524.1039032118688</v>
       </c>
       <c r="D14" t="n">
-        <v>1280.168984991987</v>
+        <v>524.1039032118688</v>
       </c>
       <c r="E14" t="n">
-        <v>975.6990312245662</v>
+        <v>524.1039032118688</v>
       </c>
       <c r="F14" t="n">
-        <v>646.0314252657819</v>
+        <v>524.1039032118688</v>
       </c>
       <c r="G14" t="n">
-        <v>310.6079278124662</v>
+        <v>188.6804057585532</v>
       </c>
       <c r="H14" t="n">
-        <v>77.24643520705004</v>
+        <v>52.21036863385412</v>
       </c>
       <c r="I14" t="n">
         <v>52.21036863385412</v>
@@ -5279,13 +5279,13 @@
         <v>102.2253385191352</v>
       </c>
       <c r="K14" t="n">
-        <v>548.8272900251554</v>
+        <v>227.9233315797023</v>
       </c>
       <c r="L14" t="n">
-        <v>741.6685272515915</v>
+        <v>420.7645688061384</v>
       </c>
       <c r="M14" t="n">
-        <v>987.9109976385915</v>
+        <v>667.0070391931383</v>
       </c>
       <c r="N14" t="n">
         <v>1246.349540858672</v>
@@ -5306,22 +5306,22 @@
         <v>2543.505837132954</v>
       </c>
       <c r="T14" t="n">
-        <v>2538.301273415213</v>
+        <v>2411.53882566771</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.955547829541</v>
+        <v>2239.193100082039</v>
       </c>
       <c r="V14" t="n">
-        <v>2116.210959316794</v>
+        <v>1989.448511569291</v>
       </c>
       <c r="W14" t="n">
-        <v>1844.760602877503</v>
+        <v>1717.99815513</v>
       </c>
       <c r="X14" t="n">
-        <v>1844.760602877503</v>
+        <v>1425.850695699743</v>
       </c>
       <c r="Y14" t="n">
-        <v>1844.760602877503</v>
+        <v>1117.029662554755</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.2854797705158</v>
+        <v>957.2854797705156</v>
       </c>
       <c r="C15" t="n">
-        <v>782.8324504893889</v>
+        <v>782.8324504893886</v>
       </c>
       <c r="D15" t="n">
-        <v>633.8980408281377</v>
+        <v>633.8980408281374</v>
       </c>
       <c r="E15" t="n">
-        <v>474.6605858226822</v>
+        <v>474.6605858226819</v>
       </c>
       <c r="F15" t="n">
-        <v>328.1260278495673</v>
+        <v>328.1260278495669</v>
       </c>
       <c r="G15" t="n">
-        <v>190.8697487603561</v>
+        <v>190.8697487603557</v>
       </c>
       <c r="H15" t="n">
-        <v>91.74162639002998</v>
+        <v>91.74162639002954</v>
       </c>
       <c r="I15" t="n">
         <v>52.21036863385412</v>
       </c>
       <c r="J15" t="n">
-        <v>188.0112200906943</v>
+        <v>63.18109510368952</v>
       </c>
       <c r="K15" t="n">
-        <v>546.7373483866231</v>
+        <v>280.0229112032015</v>
       </c>
       <c r="L15" t="n">
-        <v>1090.493293721162</v>
+        <v>823.7788565377408</v>
       </c>
       <c r="M15" t="n">
-        <v>1315.96204314335</v>
+        <v>1049.247605959928</v>
       </c>
       <c r="N15" t="n">
-        <v>1561.806924375287</v>
+        <v>1695.350917803873</v>
       </c>
       <c r="O15" t="n">
         <v>1898.031159236302</v>
@@ -5385,7 +5385,7 @@
         <v>2454.871827527115</v>
       </c>
       <c r="T15" t="n">
-        <v>2258.628689357773</v>
+        <v>2258.628689357772</v>
       </c>
       <c r="U15" t="n">
         <v>2030.502080721015</v>
@@ -5394,7 +5394,7 @@
         <v>1795.349972489272</v>
       </c>
       <c r="W15" t="n">
-        <v>1541.112615761071</v>
+        <v>1541.11261576107</v>
       </c>
       <c r="X15" t="n">
         <v>1333.261115555538</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.0090594988644</v>
+        <v>538.0090594988638</v>
       </c>
       <c r="C16" t="n">
-        <v>450.3911754017808</v>
+        <v>450.3911754017802</v>
       </c>
       <c r="D16" t="n">
-        <v>381.5928348202683</v>
+        <v>381.5928348202677</v>
       </c>
       <c r="E16" t="n">
-        <v>314.9980400686984</v>
+        <v>314.9980400686978</v>
       </c>
       <c r="F16" t="n">
-        <v>249.4263914016113</v>
+        <v>249.4263914016107</v>
       </c>
       <c r="G16" t="n">
-        <v>162.2930424029164</v>
+        <v>162.2930424029158</v>
       </c>
       <c r="H16" t="n">
-        <v>90.73654210847081</v>
+        <v>90.73654210847053</v>
       </c>
       <c r="I16" t="n">
         <v>52.21036863385412</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1456385728929</v>
+        <v>125.1456385728928</v>
       </c>
       <c r="K16" t="n">
         <v>323.5659041416195</v>
       </c>
       <c r="L16" t="n">
-        <v>610.7133866264298</v>
+        <v>610.7133866264297</v>
       </c>
       <c r="M16" t="n">
-        <v>919.5267902016428</v>
+        <v>919.5267902016426</v>
       </c>
       <c r="N16" t="n">
         <v>1228.32700709337</v>
@@ -5455,31 +5455,31 @@
         <v>1727.166351111597</v>
       </c>
       <c r="Q16" t="n">
-        <v>1823.02176892835</v>
+        <v>1823.021768928349</v>
       </c>
       <c r="R16" t="n">
-        <v>1780.840335824367</v>
+        <v>1780.840335824366</v>
       </c>
       <c r="S16" t="n">
-        <v>1657.423013404539</v>
+        <v>1657.423013404538</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.77523075042</v>
+        <v>1513.775230750419</v>
       </c>
       <c r="U16" t="n">
-        <v>1305.949818459383</v>
+        <v>1305.949818459382</v>
       </c>
       <c r="V16" t="n">
         <v>1132.583629084319</v>
       </c>
       <c r="W16" t="n">
-        <v>924.4847578781821</v>
+        <v>924.4847578781812</v>
       </c>
       <c r="X16" t="n">
-        <v>777.8135058109879</v>
+        <v>777.8135058109872</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.3392254982809</v>
+        <v>638.3392254982803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1479.083754660076</v>
+        <v>1479.083754660075</v>
       </c>
       <c r="C17" t="n">
         <v>1248.213000157859</v>
       </c>
       <c r="D17" t="n">
-        <v>1028.039063989304</v>
+        <v>1028.039063989303</v>
       </c>
       <c r="E17" t="n">
-        <v>780.3425738292549</v>
+        <v>780.3425738292544</v>
       </c>
       <c r="F17" t="n">
-        <v>507.4484314778424</v>
+        <v>507.4484314778421</v>
       </c>
       <c r="G17" t="n">
-        <v>228.7983976318985</v>
+        <v>228.7983976318984</v>
       </c>
       <c r="H17" t="n">
         <v>52.21036863385412</v>
@@ -5513,34 +5513,34 @@
         <v>52.21036863385412</v>
       </c>
       <c r="J17" t="n">
-        <v>269.6309875394883</v>
+        <v>102.2253385191352</v>
       </c>
       <c r="K17" t="n">
-        <v>716.2329390455084</v>
+        <v>548.8272900251554</v>
       </c>
       <c r="L17" t="n">
-        <v>1100.95749703045</v>
+        <v>1049.576659167613</v>
       </c>
       <c r="M17" t="n">
-        <v>1347.19996741745</v>
+        <v>1295.819129554613</v>
       </c>
       <c r="N17" t="n">
-        <v>1602.040706792722</v>
+        <v>1941.922441398558</v>
       </c>
       <c r="O17" t="n">
-        <v>1829.344329304762</v>
+        <v>2169.226063910598</v>
       </c>
       <c r="P17" t="n">
-        <v>2307.422432494434</v>
+        <v>2328.723446010503</v>
       </c>
       <c r="Q17" t="n">
-        <v>2589.217418176638</v>
+        <v>2610.518431692706</v>
       </c>
       <c r="R17" t="n">
         <v>2610.518431692706</v>
       </c>
       <c r="S17" t="n">
-        <v>2600.279300740326</v>
+        <v>2600.279300740327</v>
       </c>
       <c r="T17" t="n">
         <v>2525.085752882454</v>
@@ -5558,7 +5558,7 @@
         <v>1766.491477343975</v>
       </c>
       <c r="Y17" t="n">
-        <v>1727.591832286003</v>
+        <v>1514.443907806359</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>52.21036863385412</v>
       </c>
       <c r="J18" t="n">
-        <v>188.0112200906943</v>
+        <v>63.18109510368952</v>
       </c>
       <c r="K18" t="n">
-        <v>546.7373483866231</v>
+        <v>421.9072233996184</v>
       </c>
       <c r="L18" t="n">
-        <v>1090.493293721162</v>
+        <v>965.6631687341578</v>
       </c>
       <c r="M18" t="n">
-        <v>1315.96204314335</v>
+        <v>1191.131918156345</v>
       </c>
       <c r="N18" t="n">
-        <v>1561.806924375287</v>
+        <v>1837.23523000029</v>
       </c>
       <c r="O18" t="n">
-        <v>1898.031159236303</v>
+        <v>2106.007674094793</v>
       </c>
       <c r="P18" t="n">
-        <v>2356.644996301809</v>
+        <v>2564.6215111603</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.518431692707</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8421043800164</v>
+        <v>158.8421043800159</v>
       </c>
       <c r="C19" t="n">
-        <v>127.9976838903046</v>
+        <v>127.9976838903041</v>
       </c>
       <c r="D19" t="n">
-        <v>115.9728069161639</v>
+        <v>115.9728069161636</v>
       </c>
       <c r="E19" t="n">
-        <v>106.1514757719659</v>
+        <v>106.1514757719657</v>
       </c>
       <c r="F19" t="n">
-        <v>97.35329071225067</v>
+        <v>97.3532907122505</v>
       </c>
       <c r="G19" t="n">
-        <v>66.99340532092761</v>
+        <v>66.99340532092752</v>
       </c>
       <c r="H19" t="n">
         <v>52.21036863385412</v>
@@ -5698,25 +5698,25 @@
         <v>1192.186046200682</v>
       </c>
       <c r="S19" t="n">
-        <v>1018.933575472282</v>
+        <v>987.4504249500308</v>
       </c>
       <c r="T19" t="n">
-        <v>793.9674939873407</v>
+        <v>900.5761059032843</v>
       </c>
       <c r="U19" t="n">
-        <v>642.9155453036756</v>
+        <v>749.5241572196192</v>
       </c>
       <c r="V19" t="n">
-        <v>526.3228195359837</v>
+        <v>526.3228195359829</v>
       </c>
       <c r="W19" t="n">
-        <v>374.9974119372182</v>
+        <v>374.9974119372175</v>
       </c>
       <c r="X19" t="n">
-        <v>285.099623477396</v>
+        <v>285.0996234773953</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.398806772061</v>
+        <v>202.3988067720604</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1479.083754660076</v>
+        <v>1265.935830180433</v>
       </c>
       <c r="C20" t="n">
-        <v>1248.213000157859</v>
+        <v>1035.065075678216</v>
       </c>
       <c r="D20" t="n">
-        <v>1028.039063989304</v>
+        <v>814.8911395096607</v>
       </c>
       <c r="E20" t="n">
-        <v>780.3425738292547</v>
+        <v>603.754544831211</v>
       </c>
       <c r="F20" t="n">
-        <v>507.4484314778421</v>
+        <v>330.8604024797977</v>
       </c>
       <c r="G20" t="n">
-        <v>228.7983976318985</v>
+        <v>52.21036863385412</v>
       </c>
       <c r="H20" t="n">
         <v>52.21036863385412</v>
@@ -5753,25 +5753,25 @@
         <v>102.2253385191352</v>
       </c>
       <c r="K20" t="n">
-        <v>548.8272900251554</v>
+        <v>227.9233315797023</v>
       </c>
       <c r="L20" t="n">
-        <v>1155.153129656537</v>
+        <v>420.7645688061384</v>
       </c>
       <c r="M20" t="n">
-        <v>1401.395600043537</v>
+        <v>1066.867880650083</v>
       </c>
       <c r="N20" t="n">
-        <v>2047.498911887482</v>
+        <v>1321.708620025355</v>
       </c>
       <c r="O20" t="n">
-        <v>2274.802534399522</v>
+        <v>1926.004421987513</v>
       </c>
       <c r="P20" t="n">
-        <v>2434.299916499427</v>
+        <v>2307.422432494434</v>
       </c>
       <c r="Q20" t="n">
-        <v>2610.518431692706</v>
+        <v>2589.217418176638</v>
       </c>
       <c r="R20" t="n">
         <v>2610.518431692706</v>
@@ -5786,16 +5786,16 @@
         <v>2409.513490904154</v>
       </c>
       <c r="V20" t="n">
-        <v>2216.542365998778</v>
+        <v>2216.542365998779</v>
       </c>
       <c r="W20" t="n">
-        <v>2001.865473166859</v>
+        <v>2001.86547316686</v>
       </c>
       <c r="X20" t="n">
-        <v>1766.491477343975</v>
+        <v>1766.491477343976</v>
       </c>
       <c r="Y20" t="n">
-        <v>1514.443907806358</v>
+        <v>1514.443907806359</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.2854797705162</v>
+        <v>957.2854797705156</v>
       </c>
       <c r="C21" t="n">
-        <v>782.8324504893892</v>
+        <v>782.8324504893886</v>
       </c>
       <c r="D21" t="n">
-        <v>633.8980408281379</v>
+        <v>633.8980408281374</v>
       </c>
       <c r="E21" t="n">
-        <v>474.6605858226824</v>
+        <v>474.6605858226819</v>
       </c>
       <c r="F21" t="n">
-        <v>328.1260278495673</v>
+        <v>328.1260278495669</v>
       </c>
       <c r="G21" t="n">
-        <v>190.8697487603561</v>
+        <v>190.8697487603557</v>
       </c>
       <c r="H21" t="n">
         <v>91.74162639002998</v>
@@ -5835,16 +5835,16 @@
         <v>160.0866387571656</v>
       </c>
       <c r="L21" t="n">
-        <v>536.4752538440496</v>
+        <v>336.7106422412803</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.578565687994</v>
+        <v>982.8139540852251</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.681877531939</v>
+        <v>1628.91726592917</v>
       </c>
       <c r="O21" t="n">
-        <v>2421.285815048331</v>
+        <v>2106.007674094792</v>
       </c>
       <c r="P21" t="n">
         <v>2564.6215111603</v>
@@ -5868,7 +5868,7 @@
         <v>1795.349972489272</v>
       </c>
       <c r="W21" t="n">
-        <v>1541.112615761071</v>
+        <v>1541.11261576107</v>
       </c>
       <c r="X21" t="n">
         <v>1333.261115555538</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.8421043800164</v>
+        <v>265.4507162959603</v>
       </c>
       <c r="C22" t="n">
-        <v>127.9976838903046</v>
+        <v>234.6062958062485</v>
       </c>
       <c r="D22" t="n">
-        <v>115.9728069161639</v>
+        <v>115.9728069161636</v>
       </c>
       <c r="E22" t="n">
-        <v>106.1514757719659</v>
+        <v>106.1514757719657</v>
       </c>
       <c r="F22" t="n">
-        <v>97.35329071225067</v>
+        <v>97.3532907122505</v>
       </c>
       <c r="G22" t="n">
-        <v>66.99340532092761</v>
+        <v>66.99340532092752</v>
       </c>
       <c r="H22" t="n">
         <v>52.21036863385412</v>
@@ -5932,28 +5932,28 @@
         <v>1192.186046200682</v>
       </c>
       <c r="R22" t="n">
-        <v>1085.577434284739</v>
+        <v>1192.186046200682</v>
       </c>
       <c r="S22" t="n">
-        <v>1018.933575472282</v>
+        <v>1125.542187388226</v>
       </c>
       <c r="T22" t="n">
-        <v>932.0592564255359</v>
+        <v>1038.667868341479</v>
       </c>
       <c r="U22" t="n">
-        <v>642.9155453036756</v>
+        <v>887.6159196578142</v>
       </c>
       <c r="V22" t="n">
-        <v>526.3228195359837</v>
+        <v>632.9314314519273</v>
       </c>
       <c r="W22" t="n">
-        <v>374.9974119372182</v>
+        <v>481.6060238531619</v>
       </c>
       <c r="X22" t="n">
-        <v>285.099623477396</v>
+        <v>391.7082353933397</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.398806772061</v>
+        <v>309.0074186880048</v>
       </c>
     </row>
     <row r="23">
@@ -5972,55 +5972,55 @@
         <v>1032.389021631745</v>
       </c>
       <c r="E23" t="n">
-        <v>784.6925314716957</v>
+        <v>784.6925314716958</v>
       </c>
       <c r="F23" t="n">
         <v>511.7983891202834</v>
       </c>
       <c r="G23" t="n">
-        <v>233.1483552743402</v>
+        <v>233.1483552743401</v>
       </c>
       <c r="H23" t="n">
-        <v>56.56032627629585</v>
+        <v>56.56032627629581</v>
       </c>
       <c r="I23" t="n">
-        <v>56.56032627629585</v>
+        <v>56.56032627629581</v>
       </c>
       <c r="J23" t="n">
-        <v>106.575296161577</v>
+        <v>106.5752961615769</v>
       </c>
       <c r="K23" t="n">
-        <v>553.1772476675972</v>
+        <v>232.273289222144</v>
       </c>
       <c r="L23" t="n">
-        <v>1159.503087298979</v>
+        <v>838.5991288535261</v>
       </c>
       <c r="M23" t="n">
-        <v>1405.745557685979</v>
+        <v>1084.841599240526</v>
       </c>
       <c r="N23" t="n">
-        <v>1660.58629706125</v>
+        <v>1761.127130554456</v>
       </c>
       <c r="O23" t="n">
-        <v>2264.882099023409</v>
+        <v>2365.422932516614</v>
       </c>
       <c r="P23" t="n">
-        <v>2742.960202213081</v>
+        <v>2524.920314616519</v>
       </c>
       <c r="Q23" t="n">
-        <v>2828.016313814792</v>
+        <v>2806.715300298722</v>
       </c>
       <c r="R23" t="n">
-        <v>2828.016313814792</v>
+        <v>2828.01631381479</v>
       </c>
       <c r="S23" t="n">
-        <v>2817.777182862412</v>
+        <v>2817.77718286241</v>
       </c>
       <c r="T23" t="n">
-        <v>2742.583635004539</v>
+        <v>2742.583635004538</v>
       </c>
       <c r="U23" t="n">
-        <v>2627.01137302624</v>
+        <v>2627.011373026239</v>
       </c>
       <c r="V23" t="n">
         <v>2434.040248120864</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>961.6354374129579</v>
+        <v>961.6354374129577</v>
       </c>
       <c r="C24" t="n">
-        <v>787.1824081318309</v>
+        <v>787.1824081318307</v>
       </c>
       <c r="D24" t="n">
-        <v>638.2479984705797</v>
+        <v>638.2479984705794</v>
       </c>
       <c r="E24" t="n">
-        <v>479.0105434651241</v>
+        <v>479.010543465124</v>
       </c>
       <c r="F24" t="n">
         <v>332.475985492009</v>
@@ -6060,25 +6060,25 @@
         <v>195.2197064027978</v>
       </c>
       <c r="H24" t="n">
-        <v>96.0915840324717</v>
+        <v>96.09158403247167</v>
       </c>
       <c r="I24" t="n">
-        <v>56.56032627629585</v>
+        <v>56.56032627629581</v>
       </c>
       <c r="J24" t="n">
-        <v>192.361177733136</v>
+        <v>67.53105274613121</v>
       </c>
       <c r="K24" t="n">
-        <v>551.0873060290648</v>
+        <v>164.4365963996073</v>
       </c>
       <c r="L24" t="n">
-        <v>1094.843251363604</v>
+        <v>708.1925417341466</v>
       </c>
       <c r="M24" t="n">
-        <v>1320.312000785791</v>
+        <v>933.6612911563338</v>
       </c>
       <c r="N24" t="n">
-        <v>1566.156882017728</v>
+        <v>1309.777179362352</v>
       </c>
       <c r="O24" t="n">
         <v>1902.381116878744</v>
@@ -6105,7 +6105,7 @@
         <v>1799.699930131714</v>
       </c>
       <c r="W24" t="n">
-        <v>1545.462573403513</v>
+        <v>1545.462573403512</v>
       </c>
       <c r="X24" t="n">
         <v>1337.61107319798</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.1920620224581</v>
+        <v>269.8006739384018</v>
       </c>
       <c r="C25" t="n">
-        <v>132.3476415327463</v>
+        <v>238.95625344869</v>
       </c>
       <c r="D25" t="n">
-        <v>120.3227645586057</v>
+        <v>120.3227645586053</v>
       </c>
       <c r="E25" t="n">
-        <v>110.5014334144076</v>
+        <v>110.5014334144074</v>
       </c>
       <c r="F25" t="n">
-        <v>101.7032483546924</v>
+        <v>101.7032483546922</v>
       </c>
       <c r="G25" t="n">
-        <v>71.34336296336933</v>
+        <v>71.3433629633692</v>
       </c>
       <c r="H25" t="n">
-        <v>56.56032627629585</v>
+        <v>56.56032627629581</v>
       </c>
       <c r="I25" t="n">
-        <v>56.56032627629585</v>
+        <v>56.56032627629581</v>
       </c>
       <c r="J25" t="n">
-        <v>56.56032627629585</v>
+        <v>56.56032627629581</v>
       </c>
       <c r="K25" t="n">
         <v>175.2805271609326</v>
       </c>
       <c r="L25" t="n">
-        <v>382.7279449616531</v>
+        <v>382.727944961653</v>
       </c>
       <c r="M25" t="n">
-        <v>611.8412838527762</v>
+        <v>611.8412838527761</v>
       </c>
       <c r="N25" t="n">
         <v>840.9414360604135</v>
@@ -6169,28 +6169,28 @@
         <v>1196.536003843124</v>
       </c>
       <c r="R25" t="n">
-        <v>1073.036271908317</v>
+        <v>1196.536003843124</v>
       </c>
       <c r="S25" t="n">
-        <v>885.191770676529</v>
+        <v>1129.892145030667</v>
       </c>
       <c r="T25" t="n">
-        <v>798.3174516297825</v>
+        <v>1043.017825983921</v>
       </c>
       <c r="U25" t="n">
-        <v>647.2655029461173</v>
+        <v>891.9658773002557</v>
       </c>
       <c r="V25" t="n">
-        <v>530.6727771784255</v>
+        <v>637.2813890943688</v>
       </c>
       <c r="W25" t="n">
-        <v>379.3473695796599</v>
+        <v>485.9559814956034</v>
       </c>
       <c r="X25" t="n">
-        <v>289.4495811198377</v>
+        <v>396.0581930357812</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.7487644145027</v>
+        <v>313.3573763304463</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.170061888761</v>
+        <v>2045.17006188876</v>
       </c>
       <c r="C26" t="n">
-        <v>1732.981008555721</v>
+        <v>1732.98100855572</v>
       </c>
       <c r="D26" t="n">
-        <v>1431.488773556342</v>
+        <v>1431.488773556341</v>
       </c>
       <c r="E26" t="n">
-        <v>1102.47398456547</v>
+        <v>1102.473984565469</v>
       </c>
       <c r="F26" t="n">
-        <v>748.261543383234</v>
+        <v>748.2615433832334</v>
       </c>
       <c r="G26" t="n">
-        <v>388.2932107064669</v>
+        <v>388.2932107064665</v>
       </c>
       <c r="H26" t="n">
-        <v>130.3868828775998</v>
+        <v>130.3868828775996</v>
       </c>
       <c r="I26" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="J26" t="n">
-        <v>298.2265999865866</v>
+        <v>298.2265999865865</v>
       </c>
       <c r="K26" t="n">
         <v>744.8285514926067</v>
@@ -6239,37 +6239,37 @@
         <v>2730.229454212028</v>
       </c>
       <c r="O26" t="n">
-        <v>3334.525256174187</v>
+        <v>3259.124951659676</v>
       </c>
       <c r="P26" t="n">
-        <v>3812.603359363859</v>
+        <v>3737.203054849348</v>
       </c>
       <c r="Q26" t="n">
-        <v>4040.299054047621</v>
+        <v>4018.998040531551</v>
       </c>
       <c r="R26" t="n">
-        <v>4040.299054047621</v>
+        <v>4040.29905404762</v>
       </c>
       <c r="S26" t="n">
-        <v>3948.741624264418</v>
+        <v>3948.741624264416</v>
       </c>
       <c r="T26" t="n">
-        <v>3792.229777575722</v>
+        <v>3792.229777575721</v>
       </c>
       <c r="U26" t="n">
-        <v>3595.3392167666</v>
+        <v>3595.339216766599</v>
       </c>
       <c r="V26" t="n">
-        <v>3321.049793030401</v>
+        <v>3321.0497930304</v>
       </c>
       <c r="W26" t="n">
-        <v>3025.054601367659</v>
+        <v>3025.054601367658</v>
       </c>
       <c r="X26" t="n">
-        <v>2708.362306713951</v>
+        <v>2708.36230671395</v>
       </c>
       <c r="Y26" t="n">
-        <v>2374.996438345511</v>
+        <v>2374.996438345509</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>219.4653612074544</v>
       </c>
       <c r="H27" t="n">
-        <v>120.3372388371283</v>
+        <v>120.3372388371282</v>
       </c>
       <c r="I27" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="J27" t="n">
-        <v>216.6068325377926</v>
+        <v>216.6068325377925</v>
       </c>
       <c r="K27" t="n">
-        <v>575.3329608337215</v>
+        <v>313.5123761912687</v>
       </c>
       <c r="L27" t="n">
-        <v>1119.088906168261</v>
+        <v>490.1363796753834</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.557655590448</v>
+        <v>1136.883658146983</v>
       </c>
       <c r="N27" t="n">
-        <v>1590.402536822385</v>
+        <v>1857.277489979038</v>
       </c>
       <c r="O27" t="n">
-        <v>1926.626771683401</v>
+        <v>2449.881427495429</v>
       </c>
       <c r="P27" t="n">
-        <v>2385.240608748908</v>
+        <v>2593.217123607398</v>
       </c>
       <c r="Q27" t="n">
         <v>2639.114044139805</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192.4841653030988</v>
+        <v>317.269126451021</v>
       </c>
       <c r="C28" t="n">
-        <v>192.4841653030988</v>
+        <v>317.269126451021</v>
       </c>
       <c r="D28" t="n">
-        <v>192.4841653030988</v>
+        <v>223.9259506460572</v>
       </c>
       <c r="E28" t="n">
-        <v>192.4841653030988</v>
+        <v>223.9259506460572</v>
       </c>
       <c r="F28" t="n">
-        <v>192.4841653030988</v>
+        <v>176.9073165988491</v>
       </c>
       <c r="G28" t="n">
-        <v>80.80598108095242</v>
+        <v>176.9073165988491</v>
       </c>
       <c r="H28" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="I28" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="J28" t="n">
-        <v>129.6848580174862</v>
+        <v>129.6848580174864</v>
       </c>
       <c r="K28" t="n">
-        <v>304.0487305837081</v>
+        <v>304.0487305837084</v>
       </c>
       <c r="L28" t="n">
-        <v>567.1398200660135</v>
+        <v>567.139820066014</v>
       </c>
       <c r="M28" t="n">
-        <v>851.8968306387218</v>
+        <v>851.8968306387223</v>
       </c>
       <c r="N28" t="n">
-        <v>1136.640654527944</v>
+        <v>1136.640654527945</v>
       </c>
       <c r="O28" t="n">
         <v>1387.879102192948</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.367212541162</v>
+        <v>1587.367212541163</v>
       </c>
       <c r="Q28" t="n">
         <v>1659.16623735541</v>
       </c>
       <c r="R28" t="n">
-        <v>1631.674123416213</v>
+        <v>1592.439969027976</v>
       </c>
       <c r="S28" t="n">
-        <v>1483.711965772933</v>
+        <v>1444.477811384697</v>
       </c>
       <c r="T28" t="n">
-        <v>1315.519347895363</v>
+        <v>1276.285193507127</v>
       </c>
       <c r="U28" t="n">
-        <v>1083.149100380875</v>
+        <v>1043.914945992638</v>
       </c>
       <c r="V28" t="n">
-        <v>885.2380757823596</v>
+        <v>846.0039213941234</v>
       </c>
       <c r="W28" t="n">
-        <v>652.5943693527706</v>
+        <v>613.3602149645346</v>
       </c>
       <c r="X28" t="n">
-        <v>481.378282062125</v>
+        <v>442.1441276738888</v>
       </c>
       <c r="Y28" t="n">
-        <v>317.3591665259667</v>
+        <v>442.1441276738888</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2045.170061888761</v>
+        <v>2045.17006188876</v>
       </c>
       <c r="C29" t="n">
-        <v>1732.981008555721</v>
+        <v>1732.98100855572</v>
       </c>
       <c r="D29" t="n">
         <v>1431.488773556342</v>
       </c>
       <c r="E29" t="n">
-        <v>1102.47398456547</v>
+        <v>1102.473984565469</v>
       </c>
       <c r="F29" t="n">
-        <v>748.2615433832341</v>
+        <v>748.2615433832339</v>
       </c>
       <c r="G29" t="n">
-        <v>388.2932107064671</v>
+        <v>388.2932107064669</v>
       </c>
       <c r="H29" t="n">
-        <v>130.3868828775997</v>
+        <v>130.3868828775996</v>
       </c>
       <c r="I29" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="J29" t="n">
-        <v>298.2265999865866</v>
+        <v>298.2265999865865</v>
       </c>
       <c r="K29" t="n">
         <v>744.8285514926067</v>
@@ -6479,34 +6479,34 @@
         <v>3334.525256174187</v>
       </c>
       <c r="P29" t="n">
-        <v>3812.603359363859</v>
+        <v>3737.203054849348</v>
       </c>
       <c r="Q29" t="n">
-        <v>4040.299054047621</v>
+        <v>4018.998040531551</v>
       </c>
       <c r="R29" t="n">
-        <v>4040.299054047621</v>
+        <v>4040.29905404762</v>
       </c>
       <c r="S29" t="n">
-        <v>3948.741624264418</v>
+        <v>3948.741624264417</v>
       </c>
       <c r="T29" t="n">
         <v>3792.229777575722</v>
       </c>
       <c r="U29" t="n">
-        <v>3595.3392167666</v>
+        <v>3595.339216766599</v>
       </c>
       <c r="V29" t="n">
-        <v>3321.049793030401</v>
+        <v>3321.0497930304</v>
       </c>
       <c r="W29" t="n">
-        <v>3025.054601367659</v>
+        <v>3025.054601367658</v>
       </c>
       <c r="X29" t="n">
-        <v>2708.362306713951</v>
+        <v>2708.36230671395</v>
       </c>
       <c r="Y29" t="n">
-        <v>2374.996438345511</v>
+        <v>2374.99643834551</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>219.4653612074544</v>
       </c>
       <c r="H30" t="n">
-        <v>120.3372388371283</v>
+        <v>120.3372388371282</v>
       </c>
       <c r="I30" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="J30" t="n">
-        <v>216.6068325377926</v>
+        <v>216.6068325377925</v>
       </c>
       <c r="K30" t="n">
         <v>313.5123761912687</v>
@@ -6552,13 +6552,13 @@
         <v>1176.65314221007</v>
       </c>
       <c r="N30" t="n">
-        <v>1897.046974042125</v>
+        <v>1422.498023442007</v>
       </c>
       <c r="O30" t="n">
-        <v>2449.881427495429</v>
+        <v>2015.101960958399</v>
       </c>
       <c r="P30" t="n">
-        <v>2593.217123607398</v>
+        <v>2473.715798023906</v>
       </c>
       <c r="Q30" t="n">
         <v>2639.114044139805</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.0913959464943</v>
+        <v>489.1296904036188</v>
       </c>
       <c r="C31" t="n">
-        <v>381.9286766259593</v>
+        <v>376.9669710830838</v>
       </c>
       <c r="D31" t="n">
-        <v>288.5855008209954</v>
+        <v>283.6237952781199</v>
       </c>
       <c r="E31" t="n">
-        <v>288.5855008209954</v>
+        <v>192.4841653030986</v>
       </c>
       <c r="F31" t="n">
-        <v>288.5855008209954</v>
+        <v>192.4841653030986</v>
       </c>
       <c r="G31" t="n">
-        <v>176.9073165988491</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="H31" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="I31" t="n">
-        <v>80.80598108095242</v>
+        <v>80.80598108095239</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6848580174864</v>
+        <v>129.6848580174863</v>
       </c>
       <c r="K31" t="n">
         <v>304.0487305837083</v>
       </c>
       <c r="L31" t="n">
-        <v>567.1398200660138</v>
+        <v>567.139820066014</v>
       </c>
       <c r="M31" t="n">
-        <v>851.8968306387221</v>
+        <v>851.8968306387222</v>
       </c>
       <c r="N31" t="n">
         <v>1136.640654527945</v>
@@ -6643,28 +6643,28 @@
         <v>1659.16623735541</v>
       </c>
       <c r="R31" t="n">
-        <v>1592.439969027976</v>
+        <v>1659.16623735541</v>
       </c>
       <c r="S31" t="n">
-        <v>1444.477811384696</v>
+        <v>1659.16623735541</v>
       </c>
       <c r="T31" t="n">
-        <v>1276.285193507127</v>
+        <v>1490.973619477841</v>
       </c>
       <c r="U31" t="n">
-        <v>1095.862214265243</v>
+        <v>1258.603371963352</v>
       </c>
       <c r="V31" t="n">
-        <v>897.9511896667285</v>
+        <v>1060.692347364837</v>
       </c>
       <c r="W31" t="n">
-        <v>665.3074832371398</v>
+        <v>828.0486409352486</v>
       </c>
       <c r="X31" t="n">
-        <v>494.0913959464943</v>
+        <v>778.0238071626447</v>
       </c>
       <c r="Y31" t="n">
-        <v>494.0913959464943</v>
+        <v>614.0046916264865</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>128.0398592644289</v>
       </c>
       <c r="I32" t="n">
-        <v>80.2558974216155</v>
+        <v>80.25589742161549</v>
       </c>
       <c r="J32" t="n">
-        <v>297.6765163272497</v>
+        <v>297.6765163272496</v>
       </c>
       <c r="K32" t="n">
         <v>744.2784678332698</v>
@@ -6716,28 +6716,28 @@
         <v>3333.97517251485</v>
       </c>
       <c r="P32" t="n">
-        <v>3812.053275704522</v>
+        <v>3709.698871882502</v>
       </c>
       <c r="Q32" t="n">
-        <v>4012.794871080775</v>
+        <v>3991.493857564706</v>
       </c>
       <c r="R32" t="n">
-        <v>4012.794871080775</v>
+        <v>4012.794871080774</v>
       </c>
       <c r="S32" t="n">
-        <v>3923.034381251406</v>
+        <v>3923.034381251405</v>
       </c>
       <c r="T32" t="n">
-        <v>3768.319474516544</v>
+        <v>3768.319474516543</v>
       </c>
       <c r="U32" t="n">
-        <v>3573.225853661255</v>
+        <v>3573.225853661256</v>
       </c>
       <c r="V32" t="n">
-        <v>3300.73336987889</v>
+        <v>3300.733369878891</v>
       </c>
       <c r="W32" t="n">
-        <v>3006.535118169982</v>
+        <v>3006.535118169983</v>
       </c>
       <c r="X32" t="n">
         <v>2691.639763470108</v>
@@ -6765,34 +6765,34 @@
         <v>502.7061146104437</v>
       </c>
       <c r="F33" t="n">
-        <v>356.1715566373287</v>
+        <v>356.1715566373286</v>
       </c>
       <c r="G33" t="n">
-        <v>218.9152775481175</v>
+        <v>218.9152775481174</v>
       </c>
       <c r="H33" t="n">
-        <v>119.7871551777914</v>
+        <v>119.7871551777913</v>
       </c>
       <c r="I33" t="n">
-        <v>80.2558974216155</v>
+        <v>80.25589742161549</v>
       </c>
       <c r="J33" t="n">
-        <v>216.0567488784557</v>
+        <v>91.22662389145088</v>
       </c>
       <c r="K33" t="n">
-        <v>574.7828771743846</v>
+        <v>449.9527521873798</v>
       </c>
       <c r="L33" t="n">
-        <v>1118.538822508924</v>
+        <v>993.7086975219191</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.007571931111</v>
+        <v>1680.225460056606</v>
       </c>
       <c r="N33" t="n">
-        <v>1589.852453163048</v>
+        <v>1926.070341288543</v>
       </c>
       <c r="O33" t="n">
-        <v>1926.076688024064</v>
+        <v>2128.750582720972</v>
       </c>
       <c r="P33" t="n">
         <v>2384.690525089571</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.4415372539906</v>
+        <v>410.1133375859774</v>
       </c>
       <c r="C34" t="n">
-        <v>284.4415372539906</v>
+        <v>299.7475582192763</v>
       </c>
       <c r="D34" t="n">
-        <v>284.4415372539906</v>
+        <v>299.7475582192763</v>
       </c>
       <c r="E34" t="n">
-        <v>284.4415372539906</v>
+        <v>210.404868198089</v>
       </c>
       <c r="F34" t="n">
-        <v>284.4415372539906</v>
+        <v>122.0853242613844</v>
       </c>
       <c r="G34" t="n">
-        <v>174.5602929856783</v>
+        <v>80.25589742161549</v>
       </c>
       <c r="H34" t="n">
-        <v>80.2558974216155</v>
+        <v>80.25589742161549</v>
       </c>
       <c r="I34" t="n">
-        <v>80.2558974216155</v>
+        <v>80.25589742161549</v>
       </c>
       <c r="J34" t="n">
         <v>130.8959552069021</v>
@@ -6865,7 +6865,7 @@
         <v>571.8732789529349</v>
       </c>
       <c r="M34" t="n">
-        <v>858.3914703743958</v>
+        <v>858.3914703743957</v>
       </c>
       <c r="N34" t="n">
         <v>1144.896475112371</v>
@@ -6880,28 +6880,28 @@
         <v>1672.705600486094</v>
       </c>
       <c r="R34" t="n">
-        <v>1607.776272112494</v>
+        <v>1672.705600486094</v>
       </c>
       <c r="S34" t="n">
-        <v>1461.611054423048</v>
+        <v>1526.540382796649</v>
       </c>
       <c r="T34" t="n">
-        <v>1295.215376499312</v>
+        <v>1360.144704872913</v>
       </c>
       <c r="U34" t="n">
-        <v>1064.642068938658</v>
+        <v>1129.571397312259</v>
       </c>
       <c r="V34" t="n">
-        <v>868.5279842939766</v>
+        <v>933.4573126675776</v>
       </c>
       <c r="W34" t="n">
-        <v>637.6812178182217</v>
+        <v>702.6105461918228</v>
       </c>
       <c r="X34" t="n">
-        <v>468.2620704814102</v>
+        <v>533.1913988550114</v>
       </c>
       <c r="Y34" t="n">
-        <v>306.039894899086</v>
+        <v>533.1913988550114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,58 +6917,58 @@
         <v>1578.198272146609</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.250872370681</v>
+        <v>1301.250872370682</v>
       </c>
       <c r="E35" t="n">
-        <v>996.7809186032603</v>
+        <v>996.7809186032607</v>
       </c>
       <c r="F35" t="n">
-        <v>667.113312644476</v>
+        <v>667.1133126444763</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6898151911604</v>
+        <v>331.6898151911608</v>
       </c>
       <c r="H35" t="n">
-        <v>98.32832258574486</v>
+        <v>98.32832258574477</v>
       </c>
       <c r="I35" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J35" t="n">
-        <v>290.7128749181831</v>
+        <v>123.3072258978301</v>
       </c>
       <c r="K35" t="n">
-        <v>737.3148264242034</v>
+        <v>569.9091774038502</v>
       </c>
       <c r="L35" t="n">
-        <v>1343.640666055585</v>
+        <v>1176.235017035232</v>
       </c>
       <c r="M35" t="n">
-        <v>1612.629715250277</v>
+        <v>1591.328701734209</v>
       </c>
       <c r="N35" t="n">
-        <v>2300.443909793413</v>
+        <v>2279.142896277344</v>
       </c>
       <c r="O35" t="n">
-        <v>2904.739711755571</v>
+        <v>2883.438698239503</v>
       </c>
       <c r="P35" t="n">
-        <v>3382.817814945244</v>
+        <v>3361.516801429175</v>
       </c>
       <c r="Q35" t="n">
-        <v>3664.612800627447</v>
+        <v>3643.311787111378</v>
       </c>
       <c r="R35" t="n">
         <v>3664.612800627447</v>
       </c>
       <c r="S35" t="n">
-        <v>3597.600206067694</v>
+        <v>3597.600206067695</v>
       </c>
       <c r="T35" t="n">
         <v>3465.63319460245</v>
       </c>
       <c r="U35" t="n">
-        <v>3293.28746901678</v>
+        <v>3293.287469016779</v>
       </c>
       <c r="V35" t="n">
         <v>3043.542880504032</v>
@@ -7011,28 +7011,28 @@
         <v>112.8235137687248</v>
       </c>
       <c r="I36" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J36" t="n">
-        <v>84.26298248238434</v>
+        <v>84.26298248238433</v>
       </c>
       <c r="K36" t="n">
         <v>181.1685261358605</v>
       </c>
       <c r="L36" t="n">
-        <v>442.8531705438916</v>
+        <v>357.7925296199751</v>
       </c>
       <c r="M36" t="n">
-        <v>1129.369933078579</v>
+        <v>1044.309292154662</v>
       </c>
       <c r="N36" t="n">
-        <v>1849.763764910634</v>
+        <v>1716.432805182568</v>
       </c>
       <c r="O36" t="n">
-        <v>2442.367702427026</v>
+        <v>1919.113046614997</v>
       </c>
       <c r="P36" t="n">
-        <v>2585.703398538995</v>
+        <v>2377.726883680504</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.600319071401</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.0909468775588</v>
+        <v>559.0909468775585</v>
       </c>
       <c r="C37" t="n">
-        <v>471.4730627804751</v>
+        <v>471.4730627804749</v>
       </c>
       <c r="D37" t="n">
-        <v>402.6747221989626</v>
+        <v>402.6747221989625</v>
       </c>
       <c r="E37" t="n">
         <v>336.0799274473927</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5082787803056</v>
+        <v>270.5082787803057</v>
       </c>
       <c r="G37" t="n">
-        <v>183.3749297816107</v>
+        <v>183.3749297816108</v>
       </c>
       <c r="H37" t="n">
-        <v>111.8184294871653</v>
+        <v>111.8184294871656</v>
       </c>
       <c r="I37" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J37" t="n">
         <v>146.2275259515876</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6477915203142</v>
+        <v>344.6477915203127</v>
       </c>
       <c r="L37" t="n">
-        <v>631.7952740051244</v>
+        <v>631.795274005123</v>
       </c>
       <c r="M37" t="n">
-        <v>940.6086775803374</v>
+        <v>940.6086775803361</v>
       </c>
       <c r="N37" t="n">
-        <v>1249.408894472065</v>
+        <v>1249.408894472063</v>
       </c>
       <c r="O37" t="n">
-        <v>1524.703735139573</v>
+        <v>1524.703735139572</v>
       </c>
       <c r="P37" t="n">
-        <v>1748.248238490292</v>
+        <v>1748.248238490291</v>
       </c>
       <c r="Q37" t="n">
-        <v>1844.103656307044</v>
+        <v>1844.103656307043</v>
       </c>
       <c r="R37" t="n">
-        <v>1801.922223203061</v>
+        <v>1801.92222320306</v>
       </c>
       <c r="S37" t="n">
-        <v>1678.504900783233</v>
+        <v>1678.504900783232</v>
       </c>
       <c r="T37" t="n">
         <v>1534.857118129114</v>
@@ -7129,16 +7129,16 @@
         <v>1327.031705838077</v>
       </c>
       <c r="V37" t="n">
-        <v>1153.665516463014</v>
+        <v>1153.665516463013</v>
       </c>
       <c r="W37" t="n">
-        <v>945.5666452568761</v>
+        <v>945.5666452568757</v>
       </c>
       <c r="X37" t="n">
-        <v>798.895393189682</v>
+        <v>798.8953931896817</v>
       </c>
       <c r="Y37" t="n">
-        <v>659.4211128769754</v>
+        <v>659.4211128769749</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.842490256197</v>
+        <v>1865.842490256198</v>
       </c>
       <c r="C38" t="n">
         <v>1578.198272146609</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.250872370681</v>
+        <v>1301.250872370682</v>
       </c>
       <c r="E38" t="n">
-        <v>996.7809186032605</v>
+        <v>996.7809186032614</v>
       </c>
       <c r="F38" t="n">
-        <v>667.1133126444761</v>
+        <v>667.113312644477</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6898151911606</v>
+        <v>331.6898151911614</v>
       </c>
       <c r="H38" t="n">
-        <v>98.32832258574487</v>
+        <v>98.32832258574477</v>
       </c>
       <c r="I38" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J38" t="n">
-        <v>290.7128749181831</v>
+        <v>290.712874918183</v>
       </c>
       <c r="K38" t="n">
-        <v>737.3148264242033</v>
+        <v>416.4108679787501</v>
       </c>
       <c r="L38" t="n">
-        <v>1343.640666055585</v>
+        <v>1022.736707610132</v>
       </c>
       <c r="M38" t="n">
-        <v>1591.328701734209</v>
+        <v>1713.997576155036</v>
       </c>
       <c r="N38" t="n">
-        <v>2279.142896277345</v>
+        <v>2401.811770698172</v>
       </c>
       <c r="O38" t="n">
         <v>2883.438698239503</v>
@@ -7193,7 +7193,7 @@
         <v>3361.516801429175</v>
       </c>
       <c r="Q38" t="n">
-        <v>3643.311787111379</v>
+        <v>3643.311787111378</v>
       </c>
       <c r="R38" t="n">
         <v>3664.612800627447</v>
@@ -7205,16 +7205,16 @@
         <v>3465.633194602451</v>
       </c>
       <c r="U38" t="n">
-        <v>3293.287469016779</v>
+        <v>3293.28746901678</v>
       </c>
       <c r="V38" t="n">
         <v>3043.542880504032</v>
       </c>
       <c r="W38" t="n">
-        <v>2772.092524064741</v>
+        <v>2772.092524064742</v>
       </c>
       <c r="X38" t="n">
-        <v>2479.945064634484</v>
+        <v>2479.945064634485</v>
       </c>
       <c r="Y38" t="n">
         <v>2171.124031489496</v>
@@ -7239,7 +7239,7 @@
         <v>495.7424732013772</v>
       </c>
       <c r="F39" t="n">
-        <v>349.2079152282622</v>
+        <v>349.2079152282621</v>
       </c>
       <c r="G39" t="n">
         <v>211.9516361390509</v>
@@ -7248,7 +7248,7 @@
         <v>112.8235137687248</v>
       </c>
       <c r="I39" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J39" t="n">
         <v>169.323623406301</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.0909468775592</v>
+        <v>559.0909468775585</v>
       </c>
       <c r="C40" t="n">
-        <v>471.4730627804755</v>
+        <v>471.4730627804749</v>
       </c>
       <c r="D40" t="n">
-        <v>402.674722198963</v>
+        <v>402.6747221989625</v>
       </c>
       <c r="E40" t="n">
-        <v>336.0799274473931</v>
+        <v>336.0799274473927</v>
       </c>
       <c r="F40" t="n">
-        <v>270.508278780306</v>
+        <v>270.5082787803057</v>
       </c>
       <c r="G40" t="n">
-        <v>183.374929781611</v>
+        <v>183.3749297816108</v>
       </c>
       <c r="H40" t="n">
-        <v>111.8184294871657</v>
+        <v>111.8184294871656</v>
       </c>
       <c r="I40" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J40" t="n">
-        <v>146.2275259515876</v>
+        <v>146.227525951586</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6477915203142</v>
+        <v>344.6477915203127</v>
       </c>
       <c r="L40" t="n">
-        <v>631.7952740051251</v>
+        <v>631.795274005123</v>
       </c>
       <c r="M40" t="n">
-        <v>940.6086775803381</v>
+        <v>940.6086775803361</v>
       </c>
       <c r="N40" t="n">
-        <v>1249.408894472065</v>
+        <v>1249.408894472063</v>
       </c>
       <c r="O40" t="n">
-        <v>1524.703735139573</v>
+        <v>1524.703735139572</v>
       </c>
       <c r="P40" t="n">
-        <v>1748.248238490292</v>
+        <v>1748.248238490291</v>
       </c>
       <c r="Q40" t="n">
-        <v>1844.103656307045</v>
+        <v>1844.103656307043</v>
       </c>
       <c r="R40" t="n">
-        <v>1801.922223203062</v>
+        <v>1801.92222320306</v>
       </c>
       <c r="S40" t="n">
-        <v>1678.504900783233</v>
+        <v>1678.504900783232</v>
       </c>
       <c r="T40" t="n">
-        <v>1534.857118129115</v>
+        <v>1534.857118129114</v>
       </c>
       <c r="U40" t="n">
-        <v>1327.031705838078</v>
+        <v>1327.031705838077</v>
       </c>
       <c r="V40" t="n">
-        <v>1153.665516463014</v>
+        <v>1153.665516463013</v>
       </c>
       <c r="W40" t="n">
-        <v>945.5666452568768</v>
+        <v>945.5666452568757</v>
       </c>
       <c r="X40" t="n">
-        <v>798.8953931896826</v>
+        <v>798.8953931896817</v>
       </c>
       <c r="Y40" t="n">
-        <v>659.4211128769757</v>
+        <v>659.4211128769749</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.842490256197</v>
+        <v>1865.842490256198</v>
       </c>
       <c r="C41" t="n">
         <v>1578.198272146609</v>
@@ -7397,16 +7397,16 @@
         <v>996.7809186032607</v>
       </c>
       <c r="F41" t="n">
-        <v>667.1133126444763</v>
+        <v>667.1133126444765</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6898151911608</v>
+        <v>331.689815191161</v>
       </c>
       <c r="H41" t="n">
-        <v>98.32832258574479</v>
+        <v>98.32832258574481</v>
       </c>
       <c r="I41" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J41" t="n">
         <v>123.3072258978301</v>
@@ -7424,13 +7424,13 @@
         <v>2555.310080123272</v>
       </c>
       <c r="O41" t="n">
-        <v>3159.60588208543</v>
+        <v>2883.438698239503</v>
       </c>
       <c r="P41" t="n">
-        <v>3593.00965569855</v>
+        <v>3361.516801429175</v>
       </c>
       <c r="Q41" t="n">
-        <v>3664.612800627447</v>
+        <v>3643.311787111378</v>
       </c>
       <c r="R41" t="n">
         <v>3664.612800627447</v>
@@ -7442,16 +7442,16 @@
         <v>3465.633194602451</v>
       </c>
       <c r="U41" t="n">
-        <v>3293.287469016779</v>
+        <v>3293.28746901678</v>
       </c>
       <c r="V41" t="n">
         <v>3043.542880504032</v>
       </c>
       <c r="W41" t="n">
-        <v>2772.092524064741</v>
+        <v>2772.092524064742</v>
       </c>
       <c r="X41" t="n">
-        <v>2479.945064634484</v>
+        <v>2479.945064634485</v>
       </c>
       <c r="Y41" t="n">
         <v>2171.124031489496</v>
@@ -7476,7 +7476,7 @@
         <v>495.7424732013772</v>
       </c>
       <c r="F42" t="n">
-        <v>349.2079152282622</v>
+        <v>349.2079152282621</v>
       </c>
       <c r="G42" t="n">
         <v>211.9516361390509</v>
@@ -7485,28 +7485,28 @@
         <v>112.8235137687248</v>
       </c>
       <c r="I42" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J42" t="n">
-        <v>209.0931074693891</v>
+        <v>84.26298248238433</v>
       </c>
       <c r="K42" t="n">
-        <v>567.819235765318</v>
+        <v>181.1685261358605</v>
       </c>
       <c r="L42" t="n">
-        <v>1111.575181099857</v>
+        <v>724.9244714703998</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.043930522044</v>
+        <v>1204.015488209004</v>
       </c>
       <c r="N42" t="n">
-        <v>1582.888811753981</v>
+        <v>1924.409320041059</v>
       </c>
       <c r="O42" t="n">
-        <v>1919.113046614997</v>
+        <v>2127.089561473488</v>
       </c>
       <c r="P42" t="n">
-        <v>2377.726883680504</v>
+        <v>2585.703398538995</v>
       </c>
       <c r="Q42" t="n">
         <v>2631.600319071401</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.0909468775585</v>
+        <v>559.090946877559</v>
       </c>
       <c r="C43" t="n">
-        <v>471.4730627804749</v>
+        <v>471.4730627804753</v>
       </c>
       <c r="D43" t="n">
-        <v>402.6747221989625</v>
+        <v>402.6747221989628</v>
       </c>
       <c r="E43" t="n">
-        <v>336.0799274473927</v>
+        <v>336.0799274473929</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5082787803057</v>
+        <v>270.5082787803058</v>
       </c>
       <c r="G43" t="n">
-        <v>183.3749297816108</v>
+        <v>183.3749297816109</v>
       </c>
       <c r="H43" t="n">
         <v>111.8184294871656</v>
       </c>
       <c r="I43" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J43" t="n">
-        <v>146.2275259515877</v>
+        <v>146.2275259515874</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6477915203144</v>
+        <v>344.6477915203141</v>
       </c>
       <c r="L43" t="n">
-        <v>631.7952740051247</v>
+        <v>631.7952740051244</v>
       </c>
       <c r="M43" t="n">
-        <v>940.6086775803378</v>
+        <v>940.6086775803374</v>
       </c>
       <c r="N43" t="n">
         <v>1249.408894472065</v>
       </c>
       <c r="O43" t="n">
-        <v>1524.703735139572</v>
+        <v>1524.703735139573</v>
       </c>
       <c r="P43" t="n">
-        <v>1748.248238490291</v>
+        <v>1748.248238490292</v>
       </c>
       <c r="Q43" t="n">
-        <v>1844.103656307043</v>
+        <v>1844.103656307044</v>
       </c>
       <c r="R43" t="n">
-        <v>1801.92222320306</v>
+        <v>1801.922223203061</v>
       </c>
       <c r="S43" t="n">
-        <v>1678.504900783232</v>
+        <v>1678.504900783233</v>
       </c>
       <c r="T43" t="n">
         <v>1534.857118129114</v>
@@ -7603,16 +7603,16 @@
         <v>1327.031705838077</v>
       </c>
       <c r="V43" t="n">
-        <v>1153.665516463013</v>
+        <v>1153.665516463014</v>
       </c>
       <c r="W43" t="n">
-        <v>945.5666452568757</v>
+        <v>945.5666452568763</v>
       </c>
       <c r="X43" t="n">
-        <v>798.8953931896817</v>
+        <v>798.8953931896822</v>
       </c>
       <c r="Y43" t="n">
-        <v>659.4211128769749</v>
+        <v>659.4211128769754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.842490256198</v>
+        <v>1865.842490256197</v>
       </c>
       <c r="C44" t="n">
         <v>1578.198272146609</v>
@@ -7637,28 +7637,28 @@
         <v>667.1133126444765</v>
       </c>
       <c r="G44" t="n">
-        <v>331.689815191161</v>
+        <v>331.6898151911611</v>
       </c>
       <c r="H44" t="n">
-        <v>98.32832258574483</v>
+        <v>98.32832258574486</v>
       </c>
       <c r="I44" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J44" t="n">
-        <v>290.7128749181831</v>
+        <v>290.712874918183</v>
       </c>
       <c r="K44" t="n">
-        <v>737.3148264242033</v>
+        <v>737.314826424203</v>
       </c>
       <c r="L44" t="n">
-        <v>930.1560636506393</v>
+        <v>1343.640666055585</v>
       </c>
       <c r="M44" t="n">
-        <v>1621.416932195543</v>
+        <v>1591.328701734209</v>
       </c>
       <c r="N44" t="n">
-        <v>2309.231126738679</v>
+        <v>2279.142896277344</v>
       </c>
       <c r="O44" t="n">
         <v>2883.438698239503</v>
@@ -7667,7 +7667,7 @@
         <v>3361.516801429175</v>
       </c>
       <c r="Q44" t="n">
-        <v>3643.311787111379</v>
+        <v>3643.311787111378</v>
       </c>
       <c r="R44" t="n">
         <v>3664.612800627447</v>
@@ -7676,7 +7676,7 @@
         <v>3597.600206067695</v>
       </c>
       <c r="T44" t="n">
-        <v>3465.633194602451</v>
+        <v>3465.63319460245</v>
       </c>
       <c r="U44" t="n">
         <v>3293.28746901678</v>
@@ -7685,10 +7685,10 @@
         <v>3043.542880504032</v>
       </c>
       <c r="W44" t="n">
-        <v>2772.092524064742</v>
+        <v>2772.092524064741</v>
       </c>
       <c r="X44" t="n">
-        <v>2479.945064634485</v>
+        <v>2479.945064634484</v>
       </c>
       <c r="Y44" t="n">
         <v>2171.124031489496</v>
@@ -7722,31 +7722,31 @@
         <v>112.8235137687248</v>
       </c>
       <c r="I45" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J45" t="n">
-        <v>209.0931074693891</v>
+        <v>209.093107469389</v>
       </c>
       <c r="K45" t="n">
-        <v>305.9986511228652</v>
+        <v>305.9986511228651</v>
       </c>
       <c r="L45" t="n">
-        <v>482.6226546069799</v>
+        <v>849.7545964574042</v>
       </c>
       <c r="M45" t="n">
-        <v>1169.139417141667</v>
+        <v>1536.271358992091</v>
       </c>
       <c r="N45" t="n">
-        <v>1889.533248973722</v>
+        <v>1782.116240224028</v>
       </c>
       <c r="O45" t="n">
-        <v>2442.367702427026</v>
+        <v>2127.089561473489</v>
       </c>
       <c r="P45" t="n">
         <v>2585.703398538995</v>
       </c>
       <c r="Q45" t="n">
-        <v>2631.600319071401</v>
+        <v>2631.600319071402</v>
       </c>
       <c r="R45" t="n">
         <v>2621.982008140169</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.090946877559</v>
+        <v>559.0909468775593</v>
       </c>
       <c r="C46" t="n">
-        <v>471.4730627804753</v>
+        <v>471.4730627804756</v>
       </c>
       <c r="D46" t="n">
-        <v>402.6747221989628</v>
+        <v>402.6747221989631</v>
       </c>
       <c r="E46" t="n">
-        <v>336.0799274473929</v>
+        <v>336.0799274473933</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5082787803058</v>
+        <v>270.5082787803062</v>
       </c>
       <c r="G46" t="n">
-        <v>183.3749297816109</v>
+        <v>183.3749297816113</v>
       </c>
       <c r="H46" t="n">
         <v>111.8184294871656</v>
       </c>
       <c r="I46" t="n">
-        <v>73.29225601254895</v>
+        <v>73.29225601254893</v>
       </c>
       <c r="J46" t="n">
         <v>146.2275259515875</v>
@@ -7837,19 +7837,19 @@
         <v>1534.857118129114</v>
       </c>
       <c r="U46" t="n">
-        <v>1327.031705838077</v>
+        <v>1327.031705838078</v>
       </c>
       <c r="V46" t="n">
         <v>1153.665516463014</v>
       </c>
       <c r="W46" t="n">
-        <v>945.5666452568762</v>
+        <v>945.5666452568767</v>
       </c>
       <c r="X46" t="n">
-        <v>798.8953931896821</v>
+        <v>798.8953931896826</v>
       </c>
       <c r="Y46" t="n">
-        <v>659.4211128769754</v>
+        <v>659.4211128769757</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
         <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
         <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>195.9863378186471</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>395.2147196653266</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.0866295787243</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>134.8929226551375</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>404.301445062634</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>313.519483245019</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6341452977872</v>
+        <v>327.779557868952</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>121.1477499454907</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>404.3014450626339</v>
       </c>
       <c r="O15" t="n">
-        <v>134.8929226551375</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>193.821536119703</v>
+        <v>311.0183150666887</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>395.2147196653266</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>44.2002446042263</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>404.301445062634</v>
       </c>
       <c r="O18" t="n">
-        <v>134.892922655138</v>
+        <v>66.75980066876195</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>403.8998398554997</v>
       </c>
       <c r="N20" t="n">
-        <v>395.2147196653266</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>224.1622509161786</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.6720911761432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9483,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>201.7824359623932</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>424.8833963856137</v>
       </c>
       <c r="N21" t="n">
-        <v>404.3014450626339</v>
+        <v>404.301445062634</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>277.1819865991852</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>425.7018100390491</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.58885522506401</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.5868757313954</v>
       </c>
       <c r="O24" t="n">
-        <v>134.8929226551377</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>304.6382575107141</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>157.6692421766303</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>425.533867726679</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>134.8929226551377</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>245.6367844194513</v>
       </c>
       <c r="Q29" t="n">
-        <v>157.6692421766303</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>353.6911232534086</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>120.7084096802948</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>218.4104214825737</v>
       </c>
       <c r="Q32" t="n">
-        <v>130.4428792397527</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>134.8929226551377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>113.7416628854839</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>22.9763422299915</v>
+        <v>170.5567821333095</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>44.20024460422627</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10668,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>85.91983931708717</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>430.5844765615846</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>1.460166961236069</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>256.8922273023132</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>85.91983931708754</v>
+        <v>85.91983931708755</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>101.8434299032222</v>
       </c>
       <c r="P41" t="n">
-        <v>276.6731227406207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>44.2002446042263</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>256.1841084004209</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>134.892922655138</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>1.460166961236183</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>350.4080292815992</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,19 +11379,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>353.6911232534082</v>
+        <v>143.7303836535669</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.2287258209656</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>274.1779257781679</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.4252542297468</v>
+        <v>129.0666878613382</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>332.0692624787824</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.0278776793621</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.78570590746392</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>144.8504509116053</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>305.7328228135386</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.2287258209656</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>274.1779257781679</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.4252542297468</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>326.3709298991964</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>95.92254092591003</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24.78570590746393</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>125.4948232700275</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.225984835954</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.7328228135386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>211.0164452348466</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>211.0164452348477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>211.0164452348482</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>36.19429652678332</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>174.8221487080638</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>111.0410921273298</v>
+        <v>111.0410921273296</v>
       </c>
       <c r="D28" t="n">
-        <v>92.40974404691428</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>90.2282336752711</v>
+        <v>90.22823367527099</v>
       </c>
       <c r="F28" t="n">
-        <v>89.21531905163317</v>
+        <v>42.66687134489702</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>110.5614023799248</v>
       </c>
       <c r="H28" t="n">
-        <v>95.14032216271781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.44029861108746</v>
+        <v>62.44029861108734</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>38.84181284435521</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>162.3789243807966</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.6262512106392</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.22823367527103</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>89.2153190516331</v>
+        <v>89.21531905163306</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>95.14032216271769</v>
       </c>
       <c r="I31" t="n">
-        <v>62.44029861108739</v>
+        <v>62.44029861108734</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.05900564416012</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>146.4825360668467</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.42779558987891</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>119.9793409828611</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.3789243807967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4649065876992</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>109.2621215730341</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>90.63077349261863</v>
       </c>
       <c r="E34" t="n">
-        <v>88.44926312097544</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>87.43634849733752</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>67.37129925425803</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.36135160842215</v>
       </c>
       <c r="I34" t="n">
         <v>60.6613280567918</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>64.28003508986458</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>160.5999538265011</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792247.868327858</v>
+        <v>792247.8683278582</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878044.9789089492</v>
+        <v>878044.9789089491</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900310.0834438468</v>
+        <v>900310.0834438467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900489.8192100469</v>
+        <v>900489.8192100468</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>635787.5290293171</v>
+        <v>635787.529029317</v>
       </c>
       <c r="E2" t="n">
-        <v>573218.0970574982</v>
+        <v>573218.0970574989</v>
       </c>
       <c r="F2" t="n">
         <v>573218.0970574984</v>
       </c>
       <c r="G2" t="n">
-        <v>623289.7671382818</v>
+        <v>623289.7671382814</v>
       </c>
       <c r="H2" t="n">
-        <v>623289.7671382816</v>
+        <v>623289.7671382815</v>
       </c>
       <c r="I2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="J2" t="n">
-        <v>625532.0787459605</v>
+        <v>625532.0787459612</v>
       </c>
       <c r="K2" t="n">
         <v>625532.0787459612</v>
       </c>
       <c r="L2" t="n">
-        <v>626320.9434561094</v>
+        <v>626320.9434561093</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.3716448209</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448208</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448207</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="P2" t="n">
         <v>636307.371644819</v>
@@ -26372,31 +26372,31 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>802464.9251629632</v>
+        <v>802464.9251629633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44964.58317703851</v>
+        <v>44964.58317703856</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14459.31357794682</v>
+        <v>14459.3135779467</v>
       </c>
       <c r="J3" t="n">
-        <v>79296.62632136948</v>
+        <v>79296.62632136961</v>
       </c>
       <c r="K3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46387.75962047498</v>
+        <v>46387.75962047499</v>
       </c>
       <c r="M3" t="n">
-        <v>157248.6125920941</v>
+        <v>157248.6125920942</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>189650.5521507497</v>
       </c>
       <c r="H4" t="n">
-        <v>189650.5521507496</v>
+        <v>189650.5521507497</v>
       </c>
       <c r="I4" t="n">
         <v>196102.9919567095</v>
       </c>
       <c r="J4" t="n">
-        <v>170831.9289775617</v>
+        <v>170831.9289775618</v>
       </c>
       <c r="K4" t="n">
         <v>170831.9289775617</v>
@@ -26448,7 +26448,7 @@
         <v>171813.7023024919</v>
       </c>
       <c r="M4" t="n">
-        <v>184242.2070649169</v>
+        <v>184242.207064917</v>
       </c>
       <c r="N4" t="n">
         <v>184242.207064917</v>
@@ -26488,7 +26488,7 @@
         <v>65968.23399276484</v>
       </c>
       <c r="I5" t="n">
-        <v>69274.20180102055</v>
+        <v>69274.20180102052</v>
       </c>
       <c r="J5" t="n">
         <v>80932.91486879514</v>
@@ -26506,7 +26506,7 @@
         <v>77265.30897168483</v>
       </c>
       <c r="O5" t="n">
-        <v>77265.30897168485</v>
+        <v>77265.30897168483</v>
       </c>
       <c r="P5" t="n">
         <v>77265.30897168483</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175788.4233396012</v>
+        <v>175784.0097617333</v>
       </c>
       <c r="C6" t="n">
-        <v>175788.4233396011</v>
+        <v>175784.0097617332</v>
       </c>
       <c r="D6" t="n">
-        <v>174185.0920899388</v>
+        <v>174183.4151782757</v>
       </c>
       <c r="E6" t="n">
-        <v>-443460.6306789601</v>
+        <v>-443664.1444679509</v>
       </c>
       <c r="F6" t="n">
-        <v>359004.2944840034</v>
+        <v>358800.780695012</v>
       </c>
       <c r="G6" t="n">
-        <v>322706.3978177289</v>
+        <v>322664.4055451265</v>
       </c>
       <c r="H6" t="n">
-        <v>367670.9809947672</v>
+        <v>367628.9887221652</v>
       </c>
       <c r="I6" t="n">
-        <v>356470.8643091433</v>
+        <v>356470.8643091429</v>
       </c>
       <c r="J6" t="n">
-        <v>294470.6085782343</v>
+        <v>294435.8495688836</v>
       </c>
       <c r="K6" t="n">
-        <v>373767.2348996043</v>
+        <v>373732.4758902531</v>
       </c>
       <c r="L6" t="n">
-        <v>327455.0739699143</v>
+        <v>327422.8596854345</v>
       </c>
       <c r="M6" t="n">
-        <v>217551.2430161232</v>
+        <v>217551.2430161249</v>
       </c>
       <c r="N6" t="n">
-        <v>374799.8556082184</v>
+        <v>374799.8556082189</v>
       </c>
       <c r="O6" t="n">
-        <v>374799.8556082188</v>
+        <v>374799.8556082183</v>
       </c>
       <c r="P6" t="n">
         <v>374799.8556082172</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F2" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G2" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H2" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I2" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="J2" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="K2" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="L2" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="M2" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="N2" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="O2" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="P2" t="n">
         <v>80.50511584251502</v>
@@ -26768,7 +26768,7 @@
         <v>678.6793494671215</v>
       </c>
       <c r="M3" t="n">
-        <v>678.6793494671216</v>
+        <v>678.6793494671215</v>
       </c>
       <c r="N3" t="n">
         <v>678.6793494671215</v>
@@ -26777,7 +26777,7 @@
         <v>678.6793494671215</v>
       </c>
       <c r="P3" t="n">
-        <v>678.6793494671215</v>
+        <v>678.6793494671213</v>
       </c>
     </row>
     <row r="4">
@@ -26808,7 +26808,7 @@
         <v>652.6296079231765</v>
       </c>
       <c r="I4" t="n">
-        <v>707.0040784536981</v>
+        <v>707.0040784536976</v>
       </c>
       <c r="J4" t="n">
         <v>1010.074763511905</v>
@@ -26820,16 +26820,16 @@
         <v>1003.198717770194</v>
       </c>
       <c r="M4" t="n">
-        <v>916.1532001568618</v>
+        <v>916.1532001568617</v>
       </c>
       <c r="N4" t="n">
-        <v>916.1532001568618</v>
+        <v>916.1532001568617</v>
       </c>
       <c r="O4" t="n">
-        <v>916.1532001568618</v>
+        <v>916.1532001568617</v>
       </c>
       <c r="P4" t="n">
-        <v>916.1532001568618</v>
+        <v>916.1532001568617</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.20572897129814</v>
+        <v>56.2057289712982</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559374</v>
       </c>
       <c r="M2" t="n">
-        <v>22.52041631692126</v>
+        <v>22.52041631692135</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.37447053052153</v>
+        <v>54.37447053052108</v>
       </c>
       <c r="J4" t="n">
-        <v>303.0706850582071</v>
+        <v>303.0706850582073</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>558.7080445681331</v>
+        <v>558.7080445681332</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.20572897129814</v>
+        <v>56.2057289712982</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>245.2892318185371</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>84.0868030883735</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>165.6267500145384</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>139.3646269336318</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28056,16 +28056,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>245.2615975821166</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>219.6532342997377</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="C11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="D11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="E11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="H11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="I11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="T11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="U11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="V11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="W11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="X11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="C13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="D13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="E13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="H13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="I13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="J13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="K13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="L13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="M13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="N13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="O13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="P13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="R13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="S13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="T13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="U13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="V13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="W13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="X13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="C14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="D14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="E14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="H14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="I14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="T14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="U14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="V14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="W14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="X14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.334310688136611e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="C16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="D16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="E16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="H16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="I16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="J16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="K16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="L16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="M16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="N16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="O16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="P16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="R16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="S16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="T16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="U16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="V16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="W16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="X16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.505115842515</v>
+        <v>80.50511584251502</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="C17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="D17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="E17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="F17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="G17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I17" t="n">
         <v>105.2908217499789</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="T17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="U17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="V17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="W17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="X17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
     </row>
     <row r="18">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="C19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="D19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="E19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="F19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="G19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I19" t="n">
         <v>118.6460275823855</v>
@@ -28770,25 +28770,25 @@
         <v>122.2647346154583</v>
       </c>
       <c r="S19" t="n">
-        <v>31.16831901702909</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="U19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="V19" t="n">
-        <v>136.7108448138131</v>
+        <v>31.16831901702815</v>
       </c>
       <c r="W19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="X19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="C20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="D20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="E20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="F20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="G20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I20" t="n">
         <v>105.2908217499789</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="T20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="U20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="V20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="W20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="X20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="Y20" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,25 +28956,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="C22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="D22" t="n">
-        <v>136.7108448138131</v>
+        <v>31.16831901702827</v>
       </c>
       <c r="E22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="F22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="G22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I22" t="n">
         <v>118.6460275823855</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.72220881867439</v>
+        <v>122.2647346154583</v>
       </c>
       <c r="S22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="T22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="V22" t="n">
-        <v>136.7108448138131</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="X22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="C23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="D23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="E23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="F23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="G23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I23" t="n">
         <v>105.2908217499789</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="T23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="U23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="V23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="W23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="X23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="Y23" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
     </row>
     <row r="24">
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="C25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="D25" t="n">
-        <v>136.7108448138131</v>
+        <v>31.16831901702847</v>
       </c>
       <c r="E25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="F25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="G25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="H25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="I25" t="n">
         <v>118.6460275823855</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.2647346154583</v>
       </c>
       <c r="S25" t="n">
-        <v>16.72220881867446</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="T25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="U25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="V25" t="n">
-        <v>136.7108448138131</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="X25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7108448138131</v>
+        <v>136.7108448138132</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="C26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="D26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="E26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="F26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="G26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="H26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="I26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="T26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="U26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="V26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="W26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="X26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="C28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="D28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="E28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="F28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="G28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="H28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="I28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="J28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="K28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="L28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="M28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="N28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="O28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="P28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="R28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="S28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="T28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="U28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="V28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="W28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="X28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.20572897129808</v>
+        <v>56.20572897129818</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="C29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="D29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="E29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="F29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="G29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="H29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="I29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="T29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="U29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="V29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="W29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="X29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="Y29" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="C31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="D31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="E31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="F31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="G31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="H31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="I31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="J31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="K31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="L31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="M31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="N31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="O31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="P31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="R31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="S31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="T31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="U31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="V31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="W31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="X31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.20572897129814</v>
+        <v>56.20572897129818</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="C32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="D32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="E32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="F32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="G32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="H32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="I32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="T32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="U32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="V32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="W32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="X32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="Y32" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="C34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="D34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="E34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="F34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="G34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="H34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="I34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="J34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="K34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="L34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="M34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="N34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="O34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="P34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="R34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="S34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="T34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="U34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="V34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="W34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="X34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.98469952559373</v>
+        <v>57.98469952559372</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="C35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="D35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="E35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="F35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="G35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="H35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="I35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="T35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="U35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="V35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="W35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="X35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="C37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="D37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="E37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="F37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="G37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="H37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="I37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="J37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="K37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251339</v>
       </c>
       <c r="L37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="M37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="N37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="O37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="P37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="R37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="S37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="T37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="U37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="V37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="W37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="X37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="C38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="D38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="E38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="F38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="G38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="H38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="I38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="T38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="U38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="V38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="W38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="X38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="C40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="D40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="E40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="F40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="G40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="H40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="I40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="J40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251338</v>
       </c>
       <c r="K40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="L40" t="n">
-        <v>80.50511584251566</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="M40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="N40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="O40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="P40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="R40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="S40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="T40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="U40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="V40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="W40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="X40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.50511584251498</v>
+        <v>80.50511584251507</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="C41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="D41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="E41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="H41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="I41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="T41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="U41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="V41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="W41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="X41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="C43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="D43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="E43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="F43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="G43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="H43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="I43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="J43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251487</v>
       </c>
       <c r="K43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="L43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="M43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="N43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="O43" t="n">
-        <v>80.50511584251325</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="P43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="S43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="T43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="U43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="V43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="W43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="X43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.50511584251507</v>
+        <v>80.50511584251502</v>
       </c>
     </row>
     <row r="44">
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.728359193837673</v>
+        <v>2.728359193837672</v>
       </c>
       <c r="H35" t="n">
         <v>27.94180859389007</v>
@@ -33661,10 +33661,10 @@
         <v>347.0575208031291</v>
       </c>
       <c r="L35" t="n">
-        <v>430.5555434815389</v>
+        <v>430.5555434815388</v>
       </c>
       <c r="M35" t="n">
-        <v>479.0760012949496</v>
+        <v>479.0760012949495</v>
       </c>
       <c r="N35" t="n">
         <v>486.8279518544409</v>
@@ -33673,22 +33673,22 @@
         <v>459.6978301207175</v>
       </c>
       <c r="P35" t="n">
-        <v>392.34146252285</v>
+        <v>392.3414625228498</v>
       </c>
       <c r="Q35" t="n">
-        <v>294.6320988935382</v>
+        <v>294.6320988935381</v>
       </c>
       <c r="R35" t="n">
-        <v>171.3852932099059</v>
+        <v>171.3852932099058</v>
       </c>
       <c r="S35" t="n">
-        <v>62.17248512957603</v>
+        <v>62.17248512957602</v>
       </c>
       <c r="T35" t="n">
         <v>11.94339237102442</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2182687355070138</v>
+        <v>0.2182687355070137</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.459800864891545</v>
+        <v>1.459800864891544</v>
       </c>
       <c r="H36" t="n">
         <v>14.0986030898736</v>
       </c>
       <c r="I36" t="n">
-        <v>50.26068767280099</v>
+        <v>50.26068767280098</v>
       </c>
       <c r="J36" t="n">
         <v>137.9191685553893</v>
@@ -33740,16 +33740,16 @@
         <v>235.7258265031228</v>
       </c>
       <c r="L36" t="n">
-        <v>316.9624641072628</v>
+        <v>316.9624641072627</v>
       </c>
       <c r="M36" t="n">
-        <v>369.8802454595812</v>
+        <v>369.8802454595811</v>
       </c>
       <c r="N36" t="n">
         <v>379.6698749438759</v>
       </c>
       <c r="O36" t="n">
-        <v>347.323761042858</v>
+        <v>347.3237610428579</v>
       </c>
       <c r="P36" t="n">
         <v>278.7579388405617</v>
@@ -33758,16 +33758,16 @@
         <v>186.3422998763312</v>
       </c>
       <c r="R36" t="n">
-        <v>90.63570633072243</v>
+        <v>90.63570633072241</v>
       </c>
       <c r="S36" t="n">
         <v>27.11516080182319</v>
       </c>
       <c r="T36" t="n">
-        <v>5.884021907172496</v>
+        <v>5.884021907172494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09603953058497008</v>
+        <v>0.09603953058497006</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>36.80444734487276</v>
       </c>
       <c r="J37" t="n">
-        <v>86.52605411157056</v>
+        <v>86.52605411157055</v>
       </c>
       <c r="K37" t="n">
-        <v>142.1888866588494</v>
+        <v>142.1888866588493</v>
       </c>
       <c r="L37" t="n">
         <v>181.9528210030378</v>
@@ -33825,7 +33825,7 @@
         <v>191.8437380796979</v>
       </c>
       <c r="N37" t="n">
-        <v>187.2821227800011</v>
+        <v>187.282122780001</v>
       </c>
       <c r="O37" t="n">
         <v>172.9853528772919</v>
@@ -33834,7 +33834,7 @@
         <v>148.0188535296816</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.4805817695354</v>
+        <v>102.4805817695353</v>
       </c>
       <c r="R37" t="n">
         <v>55.02865676171118</v>
@@ -33843,10 +33843,10 @@
         <v>21.3283329988274</v>
       </c>
       <c r="T37" t="n">
-        <v>5.229168758189296</v>
+        <v>5.229168758189295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06675534584922514</v>
+        <v>0.06675534584922513</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.728359193837672</v>
+        <v>2.728359193837671</v>
       </c>
       <c r="H44" t="n">
-        <v>27.94180859389007</v>
+        <v>27.94180859389006</v>
       </c>
       <c r="I44" t="n">
-        <v>105.185067820427</v>
+        <v>105.1850678204269</v>
       </c>
       <c r="J44" t="n">
-        <v>231.5660761279804</v>
+        <v>231.5660761279803</v>
       </c>
       <c r="K44" t="n">
-        <v>347.0575208031291</v>
+        <v>347.057520803129</v>
       </c>
       <c r="L44" t="n">
-        <v>430.5555434815388</v>
+        <v>430.5555434815387</v>
       </c>
       <c r="M44" t="n">
-        <v>479.0760012949495</v>
+        <v>479.0760012949494</v>
       </c>
       <c r="N44" t="n">
-        <v>486.8279518544409</v>
+        <v>486.8279518544407</v>
       </c>
       <c r="O44" t="n">
-        <v>459.6978301207175</v>
+        <v>459.6978301207173</v>
       </c>
       <c r="P44" t="n">
-        <v>392.3414625228498</v>
+        <v>392.3414625228497</v>
       </c>
       <c r="Q44" t="n">
         <v>294.6320988935381</v>
@@ -34393,10 +34393,10 @@
         <v>171.3852932099058</v>
       </c>
       <c r="S44" t="n">
-        <v>62.17248512957602</v>
+        <v>62.172485129576</v>
       </c>
       <c r="T44" t="n">
-        <v>11.94339237102442</v>
+        <v>11.94339237102441</v>
       </c>
       <c r="U44" t="n">
         <v>0.2182687355070137</v>
@@ -34442,43 +34442,43 @@
         <v>14.0986030898736</v>
       </c>
       <c r="I45" t="n">
-        <v>50.26068767280098</v>
+        <v>50.26068767280097</v>
       </c>
       <c r="J45" t="n">
         <v>137.9191685553893</v>
       </c>
       <c r="K45" t="n">
-        <v>235.7258265031228</v>
+        <v>235.7258265031227</v>
       </c>
       <c r="L45" t="n">
-        <v>316.9624641072627</v>
+        <v>316.9624641072626</v>
       </c>
       <c r="M45" t="n">
-        <v>369.8802454595811</v>
+        <v>369.880245459581</v>
       </c>
       <c r="N45" t="n">
-        <v>379.6698749438759</v>
+        <v>379.6698749438757</v>
       </c>
       <c r="O45" t="n">
-        <v>347.3237610428579</v>
+        <v>347.3237610428578</v>
       </c>
       <c r="P45" t="n">
-        <v>278.7579388405617</v>
+        <v>278.7579388405616</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.3422998763312</v>
+        <v>186.3422998763311</v>
       </c>
       <c r="R45" t="n">
-        <v>90.63570633072241</v>
+        <v>90.63570633072239</v>
       </c>
       <c r="S45" t="n">
-        <v>27.11516080182319</v>
+        <v>27.11516080182318</v>
       </c>
       <c r="T45" t="n">
-        <v>5.884021907172494</v>
+        <v>5.884021907172492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09603953058497006</v>
+        <v>0.09603953058497003</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,22 +34515,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.223848007235793</v>
+        <v>1.223848007235792</v>
       </c>
       <c r="H46" t="n">
         <v>10.88112137342369</v>
       </c>
       <c r="I46" t="n">
-        <v>36.80444734487276</v>
+        <v>36.80444734487275</v>
       </c>
       <c r="J46" t="n">
-        <v>86.52605411157055</v>
+        <v>86.52605411157052</v>
       </c>
       <c r="K46" t="n">
         <v>142.1888866588493</v>
       </c>
       <c r="L46" t="n">
-        <v>181.9528210030378</v>
+        <v>181.9528210030377</v>
       </c>
       <c r="M46" t="n">
         <v>191.8437380796979</v>
@@ -34548,16 +34548,16 @@
         <v>102.4805817695353</v>
       </c>
       <c r="R46" t="n">
-        <v>55.02865676171118</v>
+        <v>55.02865676171115</v>
       </c>
       <c r="S46" t="n">
-        <v>21.3283329988274</v>
+        <v>21.32833299882739</v>
       </c>
       <c r="T46" t="n">
-        <v>5.229168758189295</v>
+        <v>5.229168758189293</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06675534584922513</v>
+        <v>0.06675534584922511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>50.52017160129407</v>
       </c>
       <c r="K11" t="n">
-        <v>451.1130823293133</v>
+        <v>322.9540075767956</v>
       </c>
       <c r="L11" t="n">
         <v>612.450343062002</v>
@@ -35419,19 +35419,19 @@
         <v>248.7297680676768</v>
       </c>
       <c r="N11" t="n">
-        <v>257.41488825785</v>
+        <v>652.6296079231765</v>
       </c>
       <c r="O11" t="n">
-        <v>610.3997999617761</v>
+        <v>229.5996186990307</v>
       </c>
       <c r="P11" t="n">
         <v>161.1084667675803</v>
       </c>
       <c r="Q11" t="n">
-        <v>192.4130385978129</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>137.1725772291315</v>
       </c>
       <c r="K12" t="n">
-        <v>362.3496245413423</v>
+        <v>97.88438752876377</v>
       </c>
       <c r="L12" t="n">
         <v>549.2484296308478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.6391341927003</v>
+        <v>227.7462115375628</v>
       </c>
       <c r="N12" t="n">
-        <v>248.3281628605426</v>
+        <v>652.6296079231765</v>
       </c>
       <c r="O12" t="n">
-        <v>204.7275165984135</v>
+        <v>518.2469998434325</v>
       </c>
       <c r="P12" t="n">
-        <v>463.2463000661686</v>
+        <v>144.7835314262314</v>
       </c>
       <c r="Q12" t="n">
         <v>256.4378135261588</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.67198983741277</v>
+        <v>73.6719898374128</v>
       </c>
       <c r="K13" t="n">
         <v>200.4245106754815</v>
       </c>
       <c r="L13" t="n">
-        <v>290.0479621058689</v>
+        <v>290.047962105869</v>
       </c>
       <c r="M13" t="n">
         <v>311.9327308840535</v>
       </c>
       <c r="N13" t="n">
-        <v>311.9194110017446</v>
+        <v>311.9194110017447</v>
       </c>
       <c r="O13" t="n">
         <v>278.0755966338466</v>
@@ -35586,7 +35586,7 @@
         <v>225.8025286370901</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.82365436035595</v>
+        <v>96.82365436035597</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>50.52017160129407</v>
       </c>
       <c r="K14" t="n">
-        <v>451.1130823293133</v>
+        <v>126.9676697581485</v>
       </c>
       <c r="L14" t="n">
         <v>194.7891285115516</v>
@@ -35656,7 +35656,7 @@
         <v>248.7297680676768</v>
       </c>
       <c r="N14" t="n">
-        <v>261.0490335556372</v>
+        <v>585.1944461268019</v>
       </c>
       <c r="O14" t="n">
         <v>610.3997999617761</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.1725772291315</v>
+        <v>11.08154188872263</v>
       </c>
       <c r="K15" t="n">
-        <v>362.3496245413423</v>
+        <v>219.0321374742545</v>
       </c>
       <c r="L15" t="n">
         <v>549.2484296308478</v>
@@ -35735,10 +35735,10 @@
         <v>227.7462115375628</v>
       </c>
       <c r="N15" t="n">
-        <v>248.3281628605426</v>
+        <v>652.6296079231765</v>
       </c>
       <c r="O15" t="n">
-        <v>339.620439253551</v>
+        <v>204.7275165984135</v>
       </c>
       <c r="P15" t="n">
         <v>463.2463000661686</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.67198983741277</v>
+        <v>73.6719898374128</v>
       </c>
       <c r="K16" t="n">
         <v>200.4245106754815</v>
       </c>
       <c r="L16" t="n">
-        <v>290.0479621058689</v>
+        <v>290.047962105869</v>
       </c>
       <c r="M16" t="n">
         <v>311.9327308840535</v>
       </c>
       <c r="N16" t="n">
-        <v>311.9194110017446</v>
+        <v>311.9194110017447</v>
       </c>
       <c r="O16" t="n">
         <v>278.0755966338466</v>
@@ -35823,7 +35823,7 @@
         <v>225.8025286370901</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.82365436035595</v>
+        <v>96.82365436035597</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.6167867733678</v>
+        <v>50.52017160129407</v>
       </c>
       <c r="K17" t="n">
         <v>451.1130823293133</v>
       </c>
       <c r="L17" t="n">
-        <v>388.6106646312546</v>
+        <v>505.8074435782403</v>
       </c>
       <c r="M17" t="n">
         <v>248.7297680676768</v>
       </c>
       <c r="N17" t="n">
-        <v>257.41488825785</v>
+        <v>652.6296079231765</v>
       </c>
       <c r="O17" t="n">
         <v>229.5996186990307</v>
       </c>
       <c r="P17" t="n">
-        <v>482.9071749390629</v>
+        <v>161.1084667675803</v>
       </c>
       <c r="Q17" t="n">
         <v>284.6413996789933</v>
       </c>
       <c r="R17" t="n">
-        <v>21.51617526875614</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.1725772291315</v>
+        <v>11.08154188872263</v>
       </c>
       <c r="K18" t="n">
         <v>362.3496245413423</v>
@@ -35972,16 +35972,16 @@
         <v>227.7462115375628</v>
       </c>
       <c r="N18" t="n">
-        <v>248.3281628605426</v>
+        <v>652.6296079231765</v>
       </c>
       <c r="O18" t="n">
-        <v>339.6204392535515</v>
+        <v>271.4873172671755</v>
       </c>
       <c r="P18" t="n">
         <v>463.2463000661686</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.4378135261588</v>
+        <v>46.36052579030968</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>50.52017160129407</v>
       </c>
       <c r="K20" t="n">
-        <v>451.1130823293133</v>
+        <v>126.9676697581485</v>
       </c>
       <c r="L20" t="n">
-        <v>612.450343062002</v>
+        <v>194.7891285115516</v>
       </c>
       <c r="M20" t="n">
-        <v>248.7297680676768</v>
+        <v>652.6296079231765</v>
       </c>
       <c r="N20" t="n">
-        <v>652.6296079231765</v>
+        <v>257.41488825785</v>
       </c>
       <c r="O20" t="n">
-        <v>229.5996186990307</v>
+        <v>610.3997999617761</v>
       </c>
       <c r="P20" t="n">
-        <v>161.1084667675803</v>
+        <v>385.2707176837589</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.9985001952318</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>97.88438752876377</v>
       </c>
       <c r="L21" t="n">
-        <v>380.1905202897818</v>
+        <v>178.4080843273886</v>
       </c>
       <c r="M21" t="n">
         <v>652.6296079231765</v>
@@ -36212,10 +36212,10 @@
         <v>652.6296079231765</v>
       </c>
       <c r="O21" t="n">
-        <v>598.5898358751431</v>
+        <v>481.9095031975987</v>
       </c>
       <c r="P21" t="n">
-        <v>144.7835314262314</v>
+        <v>463.2463000661686</v>
       </c>
       <c r="Q21" t="n">
         <v>46.36052579030968</v>
@@ -36358,7 +36358,7 @@
         <v>50.52017160129407</v>
       </c>
       <c r="K23" t="n">
-        <v>451.1130823293133</v>
+        <v>126.9676697581485</v>
       </c>
       <c r="L23" t="n">
         <v>612.450343062002</v>
@@ -36367,19 +36367,19 @@
         <v>248.7297680676768</v>
       </c>
       <c r="N23" t="n">
-        <v>257.41488825785</v>
+        <v>683.116698296899</v>
       </c>
       <c r="O23" t="n">
         <v>610.3997999617761</v>
       </c>
       <c r="P23" t="n">
-        <v>482.9071749390629</v>
+        <v>161.1084667675803</v>
       </c>
       <c r="Q23" t="n">
-        <v>85.91526424415264</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.1725772291315</v>
+        <v>11.08154188872263</v>
       </c>
       <c r="K24" t="n">
-        <v>362.3496245413423</v>
+        <v>97.88438752876377</v>
       </c>
       <c r="L24" t="n">
         <v>549.2484296308478</v>
@@ -36446,10 +36446,10 @@
         <v>227.7462115375628</v>
       </c>
       <c r="N24" t="n">
-        <v>248.3281628605426</v>
+        <v>379.915038591938</v>
       </c>
       <c r="O24" t="n">
-        <v>339.6204392535512</v>
+        <v>598.5898358751431</v>
       </c>
       <c r="P24" t="n">
         <v>463.2463000661686</v>
@@ -36607,16 +36607,16 @@
         <v>694.7618126698342</v>
       </c>
       <c r="O26" t="n">
-        <v>610.3997999617761</v>
+        <v>534.2378762097449</v>
       </c>
       <c r="P26" t="n">
         <v>482.9071749390629</v>
       </c>
       <c r="Q26" t="n">
-        <v>229.9956511957189</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>137.1725772291315</v>
       </c>
       <c r="K27" t="n">
-        <v>362.3496245413423</v>
+        <v>97.88438752876377</v>
       </c>
       <c r="L27" t="n">
-        <v>549.2484296308478</v>
+        <v>178.4080843273886</v>
       </c>
       <c r="M27" t="n">
-        <v>227.7462115375628</v>
+        <v>653.2800792642419</v>
       </c>
       <c r="N27" t="n">
-        <v>248.3281628605426</v>
+        <v>727.670537204096</v>
       </c>
       <c r="O27" t="n">
-        <v>339.6204392535512</v>
+        <v>598.5898358751431</v>
       </c>
       <c r="P27" t="n">
-        <v>463.2463000661686</v>
+        <v>144.7835314262314</v>
       </c>
       <c r="Q27" t="n">
-        <v>256.4378135261588</v>
+        <v>46.36052579030968</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.37260296619585</v>
+        <v>49.37260296619595</v>
       </c>
       <c r="K28" t="n">
-        <v>176.1251238042645</v>
+        <v>176.1251238042647</v>
       </c>
       <c r="L28" t="n">
-        <v>265.748575234652</v>
+        <v>265.7485752346521</v>
       </c>
       <c r="M28" t="n">
-        <v>287.6333440128366</v>
+        <v>287.6333440128367</v>
       </c>
       <c r="N28" t="n">
-        <v>287.6200241305277</v>
+        <v>287.6200241305278</v>
       </c>
       <c r="O28" t="n">
-        <v>253.7762097626297</v>
+        <v>253.7762097626298</v>
       </c>
       <c r="P28" t="n">
-        <v>201.5031417658732</v>
+        <v>201.5031417658733</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.52426748913902</v>
+        <v>72.52426748913913</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>610.3997999617761</v>
       </c>
       <c r="P29" t="n">
-        <v>482.9071749390629</v>
+        <v>406.7452511870316</v>
       </c>
       <c r="Q29" t="n">
-        <v>229.9956511957189</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>693.4512752875628</v>
       </c>
       <c r="N30" t="n">
-        <v>727.670537204096</v>
+        <v>248.3281628605426</v>
       </c>
       <c r="O30" t="n">
-        <v>558.4186398518221</v>
+        <v>598.5898358751431</v>
       </c>
       <c r="P30" t="n">
-        <v>144.7835314262314</v>
+        <v>463.2463000661686</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.36052579030968</v>
+        <v>167.0689354706045</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.37260296619591</v>
+        <v>49.37260296619595</v>
       </c>
       <c r="K31" t="n">
-        <v>176.1251238042646</v>
+        <v>176.1251238042647</v>
       </c>
       <c r="L31" t="n">
         <v>265.7485752346521</v>
       </c>
       <c r="M31" t="n">
-        <v>287.6333440128366</v>
+        <v>287.6333440128367</v>
       </c>
       <c r="N31" t="n">
         <v>287.6200241305278</v>
       </c>
       <c r="O31" t="n">
-        <v>253.7762097626297</v>
+        <v>253.7762097626298</v>
       </c>
       <c r="P31" t="n">
-        <v>201.5031417658732</v>
+        <v>201.5031417658733</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.52426748913909</v>
+        <v>72.52426748913913</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>610.3997999617761</v>
       </c>
       <c r="P32" t="n">
-        <v>482.9071749390629</v>
+        <v>379.518888250154</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.7692882588413</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.1725772291315</v>
+        <v>11.08154188872263</v>
       </c>
       <c r="K33" t="n">
         <v>362.3496245413423</v>
@@ -37154,16 +37154,16 @@
         <v>549.2484296308478</v>
       </c>
       <c r="M33" t="n">
-        <v>227.7462115375628</v>
+        <v>693.4512752875628</v>
       </c>
       <c r="N33" t="n">
         <v>248.3281628605426</v>
       </c>
       <c r="O33" t="n">
-        <v>339.6204392535512</v>
+        <v>204.7275165984135</v>
       </c>
       <c r="P33" t="n">
-        <v>463.2463000661686</v>
+        <v>258.5251943117153</v>
       </c>
       <c r="Q33" t="n">
         <v>256.4378135261588</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.1515735204915</v>
+        <v>51.15157352049149</v>
       </c>
       <c r="K34" t="n">
         <v>177.9040943585602</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.6167867733679</v>
+        <v>50.52017160129407</v>
       </c>
       <c r="K35" t="n">
         <v>451.1130823293133</v>
@@ -37312,7 +37312,7 @@
         <v>612.450343062002</v>
       </c>
       <c r="M35" t="n">
-        <v>271.7061102976684</v>
+        <v>419.2865502009863</v>
       </c>
       <c r="N35" t="n">
         <v>694.7618126698342</v>
@@ -37321,13 +37321,13 @@
         <v>610.3997999617761</v>
       </c>
       <c r="P35" t="n">
-        <v>482.9071749390631</v>
+        <v>482.9071749390629</v>
       </c>
       <c r="Q35" t="n">
-        <v>284.6413996789934</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>11.08154188872263</v>
       </c>
       <c r="K36" t="n">
-        <v>97.88438752876382</v>
+        <v>97.88438752876377</v>
       </c>
       <c r="L36" t="n">
-        <v>264.3279236444758</v>
+        <v>178.4080843273886</v>
       </c>
       <c r="M36" t="n">
         <v>693.4512752875628</v>
       </c>
       <c r="N36" t="n">
-        <v>727.6705372040961</v>
+        <v>678.9126394221271</v>
       </c>
       <c r="O36" t="n">
-        <v>598.5898358751431</v>
+        <v>204.7275165984135</v>
       </c>
       <c r="P36" t="n">
-        <v>144.7835314262315</v>
+        <v>463.2463000661686</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.36052579030971</v>
+        <v>256.4378135261588</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.67198983741277</v>
+        <v>73.67198983741284</v>
       </c>
       <c r="K37" t="n">
-        <v>200.4245106754815</v>
+        <v>200.4245106754799</v>
       </c>
       <c r="L37" t="n">
-        <v>290.0479621058689</v>
+        <v>290.047962105869</v>
       </c>
       <c r="M37" t="n">
-        <v>311.9327308840535</v>
+        <v>311.9327308840536</v>
       </c>
       <c r="N37" t="n">
-        <v>311.9194110017446</v>
+        <v>311.9194110017447</v>
       </c>
       <c r="O37" t="n">
-        <v>278.0755966338466</v>
+        <v>278.0755966338467</v>
       </c>
       <c r="P37" t="n">
-        <v>225.8025286370901</v>
+        <v>225.8025286370902</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.82365436035596</v>
+        <v>96.82365436035602</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>219.6167867733678</v>
       </c>
       <c r="K38" t="n">
-        <v>451.1130823293133</v>
+        <v>126.9676697581485</v>
       </c>
       <c r="L38" t="n">
         <v>612.450343062002</v>
       </c>
       <c r="M38" t="n">
-        <v>250.1899350289128</v>
+        <v>698.2433015605093</v>
       </c>
       <c r="N38" t="n">
         <v>694.7618126698342</v>
       </c>
       <c r="O38" t="n">
-        <v>610.3997999617761</v>
+        <v>486.491846001344</v>
       </c>
       <c r="P38" t="n">
         <v>482.9071749390629</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>97.00138120581016</v>
+        <v>97.00138120581018</v>
       </c>
       <c r="K39" t="n">
         <v>97.88438752876377</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.67198983741275</v>
+        <v>73.67198983741115</v>
       </c>
       <c r="K40" t="n">
         <v>200.4245106754815</v>
       </c>
       <c r="L40" t="n">
-        <v>290.0479621058696</v>
+        <v>290.047962105869</v>
       </c>
       <c r="M40" t="n">
-        <v>311.9327308840535</v>
+        <v>311.9327308840536</v>
       </c>
       <c r="N40" t="n">
-        <v>311.9194110017446</v>
+        <v>311.9194110017447</v>
       </c>
       <c r="O40" t="n">
-        <v>278.0755966338465</v>
+        <v>278.0755966338467</v>
       </c>
       <c r="P40" t="n">
-        <v>225.8025286370901</v>
+        <v>225.8025286370902</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.82365436035593</v>
+        <v>96.82365436035602</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,16 +37792,16 @@
         <v>694.7618126698342</v>
       </c>
       <c r="O41" t="n">
-        <v>610.3997999617761</v>
+        <v>331.443048602253</v>
       </c>
       <c r="P41" t="n">
-        <v>437.781589508201</v>
+        <v>482.9071749390629</v>
       </c>
       <c r="Q41" t="n">
-        <v>72.32640901908863</v>
+        <v>284.6413996789933</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.51617526875614</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.1725772291315</v>
+        <v>11.08154188872263</v>
       </c>
       <c r="K42" t="n">
-        <v>362.3496245413423</v>
+        <v>97.88438752876377</v>
       </c>
       <c r="L42" t="n">
         <v>549.2484296308478</v>
       </c>
       <c r="M42" t="n">
-        <v>227.7462115375628</v>
+        <v>483.9303199379838</v>
       </c>
       <c r="N42" t="n">
-        <v>248.3281628605426</v>
+        <v>727.670537204096</v>
       </c>
       <c r="O42" t="n">
-        <v>339.6204392535515</v>
+        <v>204.7275165984135</v>
       </c>
       <c r="P42" t="n">
         <v>463.2463000661686</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.4378135261588</v>
+        <v>46.36052579030968</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.67198983741284</v>
+        <v>73.67198983741264</v>
       </c>
       <c r="K43" t="n">
         <v>200.4245106754815</v>
@@ -37944,19 +37944,19 @@
         <v>290.047962105869</v>
       </c>
       <c r="M43" t="n">
-        <v>311.9327308840536</v>
+        <v>311.9327308840535</v>
       </c>
       <c r="N43" t="n">
         <v>311.9194110017447</v>
       </c>
       <c r="O43" t="n">
-        <v>278.0755966338448</v>
+        <v>278.0755966338466</v>
       </c>
       <c r="P43" t="n">
-        <v>225.8025286370902</v>
+        <v>225.8025286370901</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.82365436035602</v>
+        <v>96.82365436035597</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.6167867733678</v>
+        <v>219.6167867733677</v>
       </c>
       <c r="K44" t="n">
-        <v>451.1130823293133</v>
+        <v>451.1130823293132</v>
       </c>
       <c r="L44" t="n">
-        <v>194.7891285115516</v>
+        <v>612.4503430620018</v>
       </c>
       <c r="M44" t="n">
-        <v>698.2433015605093</v>
+        <v>250.1899350289128</v>
       </c>
       <c r="N44" t="n">
-        <v>694.7618126698342</v>
+        <v>694.7618126698339</v>
       </c>
       <c r="O44" t="n">
-        <v>580.0076479806299</v>
+        <v>610.3997999617759</v>
       </c>
       <c r="P44" t="n">
-        <v>482.9071749390629</v>
+        <v>482.9071749390628</v>
       </c>
       <c r="Q44" t="n">
         <v>284.6413996789933</v>
       </c>
       <c r="R44" t="n">
-        <v>21.51617526875614</v>
+        <v>21.51617526875609</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.1725772291315</v>
+        <v>137.1725772291314</v>
       </c>
       <c r="K45" t="n">
-        <v>97.88438752876377</v>
+        <v>97.88438752876371</v>
       </c>
       <c r="L45" t="n">
-        <v>178.4080843273886</v>
+        <v>549.2484296308476</v>
       </c>
       <c r="M45" t="n">
-        <v>693.4512752875628</v>
+        <v>693.4512752875626</v>
       </c>
       <c r="N45" t="n">
-        <v>727.670537204096</v>
+        <v>248.3281628605424</v>
       </c>
       <c r="O45" t="n">
-        <v>558.4186398518217</v>
+        <v>348.4579002519803</v>
       </c>
       <c r="P45" t="n">
-        <v>144.7835314262314</v>
+        <v>463.2463000661685</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.36052579030968</v>
+        <v>46.36052579030962</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.6719898374128</v>
+        <v>73.67198983741277</v>
       </c>
       <c r="K46" t="n">
         <v>200.4245106754815</v>
       </c>
       <c r="L46" t="n">
-        <v>290.047962105869</v>
+        <v>290.0479621058689</v>
       </c>
       <c r="M46" t="n">
         <v>311.9327308840535</v>
       </c>
       <c r="N46" t="n">
-        <v>311.9194110017447</v>
+        <v>311.9194110017446</v>
       </c>
       <c r="O46" t="n">
-        <v>278.0755966338466</v>
+        <v>278.0755966338465</v>
       </c>
       <c r="P46" t="n">
         <v>225.8025286370901</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.82365436035597</v>
+        <v>96.82365436035595</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
